--- a/Project-KTXForecasting/Result/Forecasting_2DFUTR13_전라선.xlsx
+++ b/Project-KTXForecasting/Result/Forecasting_2DFUTR13_전라선.xlsx
@@ -48,9 +48,6 @@
     <t>NBEATSx</t>
   </si>
   <si>
-    <t>NHITS</t>
-  </si>
-  <si>
     <t>TiDE</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>MLP</t>
+  </si>
+  <si>
+    <t>NHITS</t>
   </si>
   <si>
     <t>unique_id</t>
@@ -540,25 +540,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>63932506536.79037</v>
+        <v>60228138506.87533</v>
       </c>
       <c r="C4">
-        <v>252848.7819563115</v>
+        <v>245414.2182247706</v>
       </c>
       <c r="D4">
-        <v>0.03314014449046596</v>
+        <v>0.0347466683671465</v>
       </c>
       <c r="E4">
-        <v>129864.28125</v>
+        <v>139652.3697916667</v>
       </c>
       <c r="F4">
-        <v>0.1232636532336939</v>
+        <v>0.1395794063799054</v>
       </c>
       <c r="G4">
-        <v>64316.90625</v>
+        <v>90548.75</v>
       </c>
       <c r="H4">
-        <v>0.08590621992871396</v>
+        <v>0.1187069226654903</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -566,25 +566,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>60228138506.87533</v>
+        <v>115299021457.2725</v>
       </c>
       <c r="C5">
-        <v>245414.2182247706</v>
+        <v>339557.0960196127</v>
       </c>
       <c r="D5">
-        <v>0.0347466683671465</v>
+        <v>0.1018594803740753</v>
       </c>
       <c r="E5">
-        <v>139652.3697916667</v>
+        <v>269631.5260416667</v>
       </c>
       <c r="F5">
-        <v>0.1395794063799054</v>
+        <v>0.3035641276331609</v>
       </c>
       <c r="G5">
-        <v>90548.75</v>
+        <v>204788.5625</v>
       </c>
       <c r="H5">
-        <v>0.1187069226654903</v>
+        <v>0.272469165566101</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -592,25 +592,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>115299021457.2725</v>
+        <v>121066670568.3742</v>
       </c>
       <c r="C6">
-        <v>339557.0960196127</v>
+        <v>347946.3616254295</v>
       </c>
       <c r="D6">
-        <v>0.1018594803740753</v>
+        <v>0.1121065338391974</v>
       </c>
       <c r="E6">
-        <v>269631.5260416667</v>
+        <v>283128.9427083333</v>
       </c>
       <c r="F6">
-        <v>0.3035641276331609</v>
+        <v>0.321969437548335</v>
       </c>
       <c r="G6">
-        <v>204788.5625</v>
+        <v>223538.5</v>
       </c>
       <c r="H6">
-        <v>0.272469165566101</v>
+        <v>0.2990860737028457</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -618,25 +618,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>121066670568.3742</v>
+        <v>131733889212.2856</v>
       </c>
       <c r="C7">
-        <v>347946.3616254295</v>
+        <v>362951.6348114245</v>
       </c>
       <c r="D7">
-        <v>0.1121065338391974</v>
+        <v>0.1276266416896776</v>
       </c>
       <c r="E7">
-        <v>283128.9427083333</v>
+        <v>301783.984375</v>
       </c>
       <c r="F7">
-        <v>0.321969437548335</v>
+        <v>0.3462108043216693</v>
       </c>
       <c r="G7">
-        <v>223538.5</v>
+        <v>247157.359375</v>
       </c>
       <c r="H7">
-        <v>0.2990860737028457</v>
+        <v>0.3256383013220503</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -644,25 +644,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>131733889212.2856</v>
+        <v>148231972406.9243</v>
       </c>
       <c r="C8">
-        <v>362951.6348114245</v>
+        <v>385009.054967444</v>
       </c>
       <c r="D8">
-        <v>0.1276266416896776</v>
+        <v>0.14773102335678</v>
       </c>
       <c r="E8">
-        <v>301783.984375</v>
+        <v>324466.8385416667</v>
       </c>
       <c r="F8">
-        <v>0.3462108043216693</v>
+        <v>0.3743448719440245</v>
       </c>
       <c r="G8">
-        <v>247157.359375</v>
+        <v>258369.125</v>
       </c>
       <c r="H8">
-        <v>0.3256383013220503</v>
+        <v>0.3441859056920683</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -670,25 +670,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>148231972406.9243</v>
+        <v>152221109895.9287</v>
       </c>
       <c r="C9">
-        <v>385009.054967444</v>
+        <v>390155.2382013199</v>
       </c>
       <c r="D9">
-        <v>0.14773102335678</v>
+        <v>0.1658635039274985</v>
       </c>
       <c r="E9">
-        <v>324466.8385416667</v>
+        <v>341515.0677083333</v>
       </c>
       <c r="F9">
-        <v>0.3743448719440245</v>
+        <v>0.4001180985303309</v>
       </c>
       <c r="G9">
-        <v>258369.125</v>
+        <v>282062.96875</v>
       </c>
       <c r="H9">
-        <v>0.3441859056920683</v>
+        <v>0.3953228269042073</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -696,25 +696,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>152221109895.9287</v>
+        <v>167190507483.1929</v>
       </c>
       <c r="C10">
-        <v>390155.2382013199</v>
+        <v>408889.3584861226</v>
       </c>
       <c r="D10">
-        <v>0.1658635039274985</v>
+        <v>0.1832940338176182</v>
       </c>
       <c r="E10">
-        <v>341515.0677083333</v>
+        <v>357740.9010416667</v>
       </c>
       <c r="F10">
-        <v>0.4001180985303309</v>
+        <v>0.4178868591676907</v>
       </c>
       <c r="G10">
-        <v>282062.96875</v>
+        <v>322197.21875</v>
       </c>
       <c r="H10">
-        <v>0.3953228269042073</v>
+        <v>0.4270003877771378</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -722,25 +722,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>167190507483.1929</v>
+        <v>166599338743.9379</v>
       </c>
       <c r="C11">
-        <v>408889.3584861226</v>
+        <v>408165.8226063739</v>
       </c>
       <c r="D11">
-        <v>0.1832940338176182</v>
+        <v>0.1844238425127722</v>
       </c>
       <c r="E11">
-        <v>357740.9010416667</v>
+        <v>358845.7693071188</v>
       </c>
       <c r="F11">
-        <v>0.4178868591676907</v>
+        <v>0.4201188536444339</v>
       </c>
       <c r="G11">
-        <v>322197.21875</v>
+        <v>316373.4927837303</v>
       </c>
       <c r="H11">
-        <v>0.4270003877771378</v>
+        <v>0.4290177723764822</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -748,25 +748,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>166599338743.9379</v>
+        <v>184774717280.4004</v>
       </c>
       <c r="C12">
-        <v>408165.8226063739</v>
+        <v>429854.2977340117</v>
       </c>
       <c r="D12">
-        <v>0.1844238425127722</v>
+        <v>0.1967846480459722</v>
       </c>
       <c r="E12">
-        <v>358845.7693071188</v>
+        <v>373204.6027220494</v>
       </c>
       <c r="F12">
-        <v>0.4201188536444339</v>
+        <v>0.4344301457002696</v>
       </c>
       <c r="G12">
-        <v>316373.4927837303</v>
+        <v>318070.5561812702</v>
       </c>
       <c r="H12">
-        <v>0.4290177723764822</v>
+        <v>0.4213059229647734</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -774,25 +774,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>184774717280.4004</v>
+        <v>173559099799.0622</v>
       </c>
       <c r="C13">
-        <v>429854.2977340117</v>
+        <v>416604.2484169625</v>
       </c>
       <c r="D13">
-        <v>0.1967846480459722</v>
+        <v>0.1946927206731588</v>
       </c>
       <c r="E13">
-        <v>373204.6027220494</v>
+        <v>367440.6142221214</v>
       </c>
       <c r="F13">
-        <v>0.4344301457002696</v>
+        <v>0.4308551832441714</v>
       </c>
       <c r="G13">
-        <v>318070.5561812702</v>
+        <v>321205.2579166008</v>
       </c>
       <c r="H13">
-        <v>0.4213059229647734</v>
+        <v>0.4273443211165273</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -800,25 +800,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>173559099799.0622</v>
+        <v>1986935759604.775</v>
       </c>
       <c r="C14">
-        <v>416604.2484169625</v>
+        <v>1409587.08833643</v>
       </c>
       <c r="D14">
-        <v>0.1946927206731588</v>
+        <v>2.524812673720625</v>
       </c>
       <c r="E14">
-        <v>367440.6142221214</v>
+        <v>1136477.301432292</v>
       </c>
       <c r="F14">
-        <v>0.4308551832441714</v>
+        <v>1.349723716394707</v>
       </c>
       <c r="G14">
-        <v>321205.2579166008</v>
+        <v>892042.5078125</v>
       </c>
       <c r="H14">
-        <v>0.4273443211165273</v>
+        <v>1.220421455358113</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -826,25 +826,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1986935759604.775</v>
+        <v>13098492925123.09</v>
       </c>
       <c r="C15">
-        <v>1409587.08833643</v>
+        <v>3619184.013714015</v>
       </c>
       <c r="D15">
-        <v>2.524812673720625</v>
+        <v>17.94441464678021</v>
       </c>
       <c r="E15">
-        <v>1136477.301432292</v>
+        <v>2766796.265625</v>
       </c>
       <c r="F15">
-        <v>1.349723716394707</v>
+        <v>3.317185507791103</v>
       </c>
       <c r="G15">
-        <v>892042.5078125</v>
+        <v>1639137.5625</v>
       </c>
       <c r="H15">
-        <v>1.220421455358113</v>
+        <v>2.179600138306215</v>
       </c>
     </row>
   </sheetData>
@@ -930,40 +930,40 @@
         <v>694807.9375</v>
       </c>
       <c r="F2">
-        <v>694805.3125</v>
+        <v>751250.75</v>
       </c>
       <c r="G2">
-        <v>751250.75</v>
+        <v>535195.125</v>
       </c>
       <c r="H2">
-        <v>535195.125</v>
+        <v>527855.4375</v>
       </c>
       <c r="I2">
-        <v>527855.4375</v>
+        <v>544483.875</v>
       </c>
       <c r="J2">
-        <v>544483.875</v>
+        <v>481322</v>
       </c>
       <c r="K2">
-        <v>481322</v>
+        <v>441622.71875</v>
       </c>
       <c r="L2">
-        <v>441622.71875</v>
+        <v>472336.53125</v>
       </c>
       <c r="M2">
-        <v>472336.53125</v>
+        <v>473191.3828968254</v>
       </c>
       <c r="N2">
-        <v>473191.3828968254</v>
+        <v>445197.1415961621</v>
       </c>
       <c r="O2">
-        <v>445197.1415961621</v>
+        <v>473041.252252763</v>
       </c>
       <c r="P2">
-        <v>473041.252252763</v>
+        <v>448075.40625</v>
       </c>
       <c r="Q2">
-        <v>448075.40625</v>
+        <v>8264626</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -983,40 +983,40 @@
         <v>694806.3125</v>
       </c>
       <c r="F3">
-        <v>694806</v>
+        <v>737540.125</v>
       </c>
       <c r="G3">
-        <v>737540.125</v>
+        <v>590287.1875</v>
       </c>
       <c r="H3">
-        <v>590287.1875</v>
+        <v>588427.25</v>
       </c>
       <c r="I3">
-        <v>588427.25</v>
+        <v>571207.5625</v>
       </c>
       <c r="J3">
-        <v>571207.5625</v>
+        <v>528663.75</v>
       </c>
       <c r="K3">
-        <v>528663.75</v>
+        <v>577427.375</v>
       </c>
       <c r="L3">
-        <v>577427.375</v>
+        <v>553533.125</v>
       </c>
       <c r="M3">
-        <v>553533.125</v>
+        <v>560820.0166666667</v>
       </c>
       <c r="N3">
-        <v>560820.0166666667</v>
+        <v>470728.6323710653</v>
       </c>
       <c r="O3">
-        <v>470728.6323710653</v>
+        <v>555771.9694456835</v>
       </c>
       <c r="P3">
-        <v>555771.9694456835</v>
+        <v>-1464261</v>
       </c>
       <c r="Q3">
-        <v>-1464261</v>
+        <v>8939554</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1036,40 +1036,40 @@
         <v>694803.5</v>
       </c>
       <c r="F4">
-        <v>694805.125</v>
+        <v>746315.8125</v>
       </c>
       <c r="G4">
-        <v>746315.8125</v>
+        <v>521758.5</v>
       </c>
       <c r="H4">
-        <v>521758.5</v>
+        <v>497180.9375</v>
       </c>
       <c r="I4">
-        <v>497180.9375</v>
+        <v>480201.75</v>
       </c>
       <c r="J4">
-        <v>480201.75</v>
+        <v>448134.03125</v>
       </c>
       <c r="K4">
-        <v>448134.03125</v>
+        <v>405392.625</v>
       </c>
       <c r="L4">
-        <v>405392.625</v>
+        <v>451951.65625</v>
       </c>
       <c r="M4">
-        <v>451951.65625</v>
+        <v>460553.2228636364</v>
       </c>
       <c r="N4">
-        <v>460553.2228636364</v>
+        <v>435330.5223886665</v>
       </c>
       <c r="O4">
-        <v>435330.5223886665</v>
+        <v>444511.8818542698</v>
       </c>
       <c r="P4">
-        <v>444511.8818542698</v>
+        <v>1277843.375</v>
       </c>
       <c r="Q4">
-        <v>1277843.375</v>
+        <v>4687101</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1089,40 +1089,40 @@
         <v>694808.5625</v>
       </c>
       <c r="F5">
-        <v>694806.25</v>
+        <v>744248.625</v>
       </c>
       <c r="G5">
-        <v>744248.625</v>
+        <v>513403.625</v>
       </c>
       <c r="H5">
-        <v>513403.625</v>
+        <v>482055.8125</v>
       </c>
       <c r="I5">
-        <v>482055.8125</v>
+        <v>446405.6875</v>
       </c>
       <c r="J5">
-        <v>446405.6875</v>
+        <v>419956.375</v>
       </c>
       <c r="K5">
-        <v>419956.375</v>
+        <v>387988.875</v>
       </c>
       <c r="L5">
-        <v>387988.875</v>
+        <v>449916.3125</v>
       </c>
       <c r="M5">
-        <v>449916.3125</v>
+        <v>434752.4293318902</v>
       </c>
       <c r="N5">
-        <v>434752.4293318902</v>
+        <v>462359.0254644399</v>
       </c>
       <c r="O5">
-        <v>462359.0254644399</v>
+        <v>435807.8171632701</v>
       </c>
       <c r="P5">
-        <v>435807.8171632701</v>
+        <v>-969549.1875</v>
       </c>
       <c r="Q5">
-        <v>-969549.1875</v>
+        <v>3787627.25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1142,40 +1142,40 @@
         <v>694811.875</v>
       </c>
       <c r="F6">
-        <v>694806.125</v>
+        <v>704802.0625</v>
       </c>
       <c r="G6">
-        <v>704802.0625</v>
+        <v>530955.9375</v>
       </c>
       <c r="H6">
-        <v>530955.9375</v>
+        <v>530265.125</v>
       </c>
       <c r="I6">
-        <v>530265.125</v>
+        <v>499651.3125</v>
       </c>
       <c r="J6">
-        <v>499651.3125</v>
+        <v>498009.1875</v>
       </c>
       <c r="K6">
-        <v>498009.1875</v>
+        <v>463516.65625</v>
       </c>
       <c r="L6">
-        <v>463516.65625</v>
+        <v>408662.28125</v>
       </c>
       <c r="M6">
-        <v>408662.28125</v>
+        <v>414486.0072162697</v>
       </c>
       <c r="N6">
-        <v>414486.0072162697</v>
+        <v>419837.1449658123</v>
       </c>
       <c r="O6">
-        <v>419837.1449658123</v>
+        <v>409654.2420833992</v>
       </c>
       <c r="P6">
-        <v>409654.2420833992</v>
+        <v>1577861.5</v>
       </c>
       <c r="Q6">
-        <v>1577861.5</v>
+        <v>2285423.25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1195,40 +1195,40 @@
         <v>694811.625</v>
       </c>
       <c r="F7">
-        <v>694805.75</v>
+        <v>650458.375</v>
       </c>
       <c r="G7">
-        <v>650458.375</v>
+        <v>552282.375</v>
       </c>
       <c r="H7">
-        <v>552282.375</v>
+        <v>543988.875</v>
       </c>
       <c r="I7">
-        <v>543988.875</v>
+        <v>499474.53125</v>
       </c>
       <c r="J7">
-        <v>499474.53125</v>
+        <v>497561</v>
       </c>
       <c r="K7">
-        <v>497561</v>
+        <v>478762.8125</v>
       </c>
       <c r="L7">
-        <v>478762.8125</v>
+        <v>551735.625</v>
       </c>
       <c r="M7">
-        <v>551735.625</v>
+        <v>546895.3955</v>
       </c>
       <c r="N7">
-        <v>546895.3955</v>
+        <v>441803.5501591565</v>
       </c>
       <c r="O7">
-        <v>441803.5501591565</v>
+        <v>542734.1137637416</v>
       </c>
       <c r="P7">
-        <v>542734.1137637416</v>
+        <v>2162833.25</v>
       </c>
       <c r="Q7">
-        <v>2162833.25</v>
+        <v>538733.5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1248,40 +1248,40 @@
         <v>694810.9375</v>
       </c>
       <c r="F8">
-        <v>694807.1875</v>
+        <v>698638.1875</v>
       </c>
       <c r="G8">
-        <v>698638.1875</v>
+        <v>557154.3125</v>
       </c>
       <c r="H8">
-        <v>557154.3125</v>
+        <v>549530.8125</v>
       </c>
       <c r="I8">
-        <v>549530.8125</v>
+        <v>542227.0625</v>
       </c>
       <c r="J8">
-        <v>542227.0625</v>
+        <v>508599.25</v>
       </c>
       <c r="K8">
-        <v>508599.25</v>
+        <v>480912.96875</v>
       </c>
       <c r="L8">
-        <v>480912.96875</v>
+        <v>419192.78125</v>
       </c>
       <c r="M8">
-        <v>419192.78125</v>
+        <v>450907.0640396825</v>
       </c>
       <c r="N8">
-        <v>450907.0640396825</v>
+        <v>502464.4269263567</v>
       </c>
       <c r="O8">
-        <v>502464.4269263567</v>
+        <v>410186.4650303657</v>
       </c>
       <c r="P8">
-        <v>410186.4650303657</v>
+        <v>72101.4296875</v>
       </c>
       <c r="Q8">
-        <v>72101.4296875</v>
+        <v>-1999221</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1301,40 +1301,40 @@
         <v>694807.3125</v>
       </c>
       <c r="F9">
-        <v>694807</v>
+        <v>859401.875</v>
       </c>
       <c r="G9">
-        <v>859401.875</v>
+        <v>562598.9375</v>
       </c>
       <c r="H9">
-        <v>562598.9375</v>
+        <v>541170.8125</v>
       </c>
       <c r="I9">
-        <v>541170.8125</v>
+        <v>504473.125</v>
       </c>
       <c r="J9">
-        <v>504473.125</v>
+        <v>520916.4375</v>
       </c>
       <c r="K9">
-        <v>520916.4375</v>
+        <v>469732.1875</v>
       </c>
       <c r="L9">
-        <v>469732.1875</v>
+        <v>418804.34375</v>
       </c>
       <c r="M9">
-        <v>418804.34375</v>
+        <v>423202.3490357144</v>
       </c>
       <c r="N9">
-        <v>423202.3490357144</v>
+        <v>411996.4639868118</v>
       </c>
       <c r="O9">
-        <v>411996.4639868118</v>
+        <v>416753.2129336395</v>
       </c>
       <c r="P9">
-        <v>416753.2129336395</v>
+        <v>843094.6875</v>
       </c>
       <c r="Q9">
-        <v>843094.6875</v>
+        <v>-948427.875</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1354,40 +1354,40 @@
         <v>694808.4375</v>
       </c>
       <c r="F10">
-        <v>694808.6875</v>
+        <v>939623.875</v>
       </c>
       <c r="G10">
-        <v>939623.875</v>
+        <v>562392.0625</v>
       </c>
       <c r="H10">
-        <v>562392.0625</v>
+        <v>565701.4375</v>
       </c>
       <c r="I10">
-        <v>565701.4375</v>
+        <v>537466.9375</v>
       </c>
       <c r="J10">
-        <v>537466.9375</v>
+        <v>528046.9375</v>
       </c>
       <c r="K10">
-        <v>528046.9375</v>
+        <v>480831.625</v>
       </c>
       <c r="L10">
-        <v>480831.625</v>
+        <v>472032.0625</v>
       </c>
       <c r="M10">
-        <v>472032.0625</v>
+        <v>462345.044857143</v>
       </c>
       <c r="N10">
-        <v>462345.044857143</v>
+        <v>450135.7426716472</v>
       </c>
       <c r="O10">
-        <v>450135.7426716472</v>
+        <v>470381.5633469126</v>
       </c>
       <c r="P10">
-        <v>470381.5633469126</v>
+        <v>3154468.5</v>
       </c>
       <c r="Q10">
-        <v>3154468.5</v>
+        <v>-669806.6875</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1407,40 +1407,40 @@
         <v>694809.0625</v>
       </c>
       <c r="F11">
-        <v>694809.125</v>
+        <v>649736.3125</v>
       </c>
       <c r="G11">
-        <v>649736.3125</v>
+        <v>542601.25</v>
       </c>
       <c r="H11">
-        <v>542601.25</v>
+        <v>518495.15625</v>
       </c>
       <c r="I11">
-        <v>518495.15625</v>
+        <v>509832.71875</v>
       </c>
       <c r="J11">
-        <v>509832.71875</v>
+        <v>481039.8125</v>
       </c>
       <c r="K11">
-        <v>481039.8125</v>
+        <v>483879.5625</v>
       </c>
       <c r="L11">
-        <v>483879.5625</v>
+        <v>408662.28125</v>
       </c>
       <c r="M11">
-        <v>408662.28125</v>
+        <v>414486.0072162697</v>
       </c>
       <c r="N11">
-        <v>414486.0072162697</v>
+        <v>419837.1449658123</v>
       </c>
       <c r="O11">
-        <v>419837.1449658123</v>
+        <v>409654.2420833992</v>
       </c>
       <c r="P11">
-        <v>409654.2420833992</v>
+        <v>-203212.515625</v>
       </c>
       <c r="Q11">
-        <v>-203212.515625</v>
+        <v>2268720.5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1460,40 +1460,40 @@
         <v>694818.5</v>
       </c>
       <c r="F12">
-        <v>694805.4375</v>
+        <v>676091</v>
       </c>
       <c r="G12">
-        <v>676091</v>
+        <v>559149.5</v>
       </c>
       <c r="H12">
-        <v>559149.5</v>
+        <v>540551.0625</v>
       </c>
       <c r="I12">
-        <v>540551.0625</v>
+        <v>524455.75</v>
       </c>
       <c r="J12">
-        <v>524455.75</v>
+        <v>508436.3125</v>
       </c>
       <c r="K12">
-        <v>508436.3125</v>
+        <v>533890.4375</v>
       </c>
       <c r="L12">
-        <v>533890.4375</v>
+        <v>431627.125</v>
       </c>
       <c r="M12">
-        <v>431627.125</v>
+        <v>393243.8038333333</v>
       </c>
       <c r="N12">
-        <v>393243.8038333333</v>
+        <v>415096.2291678288</v>
       </c>
       <c r="O12">
-        <v>415096.2291678288</v>
+        <v>355211.3060301868</v>
       </c>
       <c r="P12">
-        <v>355211.3060301868</v>
+        <v>2176435</v>
       </c>
       <c r="Q12">
-        <v>2176435</v>
+        <v>-522762.875</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1513,40 +1513,40 @@
         <v>694815.8125</v>
       </c>
       <c r="F13">
-        <v>694806.125</v>
+        <v>703281.4375</v>
       </c>
       <c r="G13">
-        <v>703281.4375</v>
+        <v>540019.875</v>
       </c>
       <c r="H13">
-        <v>540019.875</v>
+        <v>520606.96875</v>
       </c>
       <c r="I13">
-        <v>520606.96875</v>
+        <v>522088.875</v>
       </c>
       <c r="J13">
-        <v>522088.875</v>
+        <v>489089.84375</v>
       </c>
       <c r="K13">
-        <v>489089.84375</v>
+        <v>501238.34375</v>
       </c>
       <c r="L13">
-        <v>501238.34375</v>
+        <v>472032.0625</v>
       </c>
       <c r="M13">
-        <v>472032.0625</v>
+        <v>462345.044857143</v>
       </c>
       <c r="N13">
-        <v>462345.044857143</v>
+        <v>450135.7426716472</v>
       </c>
       <c r="O13">
-        <v>450135.7426716472</v>
+        <v>470381.5633469126</v>
       </c>
       <c r="P13">
-        <v>470381.5633469126</v>
+        <v>395407.5625</v>
       </c>
       <c r="Q13">
-        <v>395407.5625</v>
+        <v>1292965.25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1566,40 +1566,40 @@
         <v>694815.1875</v>
       </c>
       <c r="F14">
-        <v>694808.5</v>
+        <v>705598.9375</v>
       </c>
       <c r="G14">
-        <v>705598.9375</v>
+        <v>556530.5625</v>
       </c>
       <c r="H14">
-        <v>556530.5625</v>
+        <v>520562.28125</v>
       </c>
       <c r="I14">
-        <v>520562.28125</v>
+        <v>491294.21875</v>
       </c>
       <c r="J14">
-        <v>491294.21875</v>
+        <v>494077</v>
       </c>
       <c r="K14">
-        <v>494077</v>
+        <v>496665.5625</v>
       </c>
       <c r="L14">
-        <v>496665.5625</v>
+        <v>247224.734375</v>
       </c>
       <c r="M14">
-        <v>247224.734375</v>
+        <v>264257.0426706349</v>
       </c>
       <c r="N14">
-        <v>264257.0426706349</v>
+        <v>390932.0555316973</v>
       </c>
       <c r="O14">
-        <v>390932.0555316973</v>
+        <v>255661.6901101085</v>
       </c>
       <c r="P14">
-        <v>255661.6901101085</v>
+        <v>2782178</v>
       </c>
       <c r="Q14">
-        <v>2782178</v>
+        <v>1743817.625</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1619,40 +1619,40 @@
         <v>694810.9375</v>
       </c>
       <c r="F15">
-        <v>694808</v>
+        <v>727803.8125</v>
       </c>
       <c r="G15">
-        <v>727803.8125</v>
+        <v>626298.5</v>
       </c>
       <c r="H15">
-        <v>626298.5</v>
+        <v>582578.125</v>
       </c>
       <c r="I15">
-        <v>582578.125</v>
+        <v>586984.5</v>
       </c>
       <c r="J15">
-        <v>586984.5</v>
+        <v>567466.125</v>
       </c>
       <c r="K15">
-        <v>567466.125</v>
+        <v>572983.625</v>
       </c>
       <c r="L15">
-        <v>572983.625</v>
+        <v>519517.0625</v>
       </c>
       <c r="M15">
-        <v>519517.0625</v>
+        <v>503713.8057380952</v>
       </c>
       <c r="N15">
-        <v>503713.8057380952</v>
+        <v>502464.4269263567</v>
       </c>
       <c r="O15">
-        <v>502464.4269263567</v>
+        <v>498397.3541183123</v>
       </c>
       <c r="P15">
-        <v>498397.3541183123</v>
+        <v>434721.3125</v>
       </c>
       <c r="Q15">
-        <v>434721.3125</v>
+        <v>2439128</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1672,40 +1672,40 @@
         <v>694810.9375</v>
       </c>
       <c r="F16">
-        <v>694808.75</v>
+        <v>757315.875</v>
       </c>
       <c r="G16">
-        <v>757315.875</v>
+        <v>549188.5625</v>
       </c>
       <c r="H16">
-        <v>549188.5625</v>
+        <v>535085.6875</v>
       </c>
       <c r="I16">
-        <v>535085.6875</v>
+        <v>510188.625</v>
       </c>
       <c r="J16">
-        <v>510188.625</v>
+        <v>494251.3125</v>
       </c>
       <c r="K16">
-        <v>494251.3125</v>
+        <v>519711.28125</v>
       </c>
       <c r="L16">
-        <v>519711.28125</v>
+        <v>544059.8125</v>
       </c>
       <c r="M16">
-        <v>544059.8125</v>
+        <v>535679.5541706347</v>
       </c>
       <c r="N16">
-        <v>535679.5541706347</v>
+        <v>430302.0488247027</v>
       </c>
       <c r="O16">
-        <v>430302.0488247027</v>
+        <v>541022.9322509236</v>
       </c>
       <c r="P16">
-        <v>541022.9322509236</v>
+        <v>1416685.375</v>
       </c>
       <c r="Q16">
-        <v>1416685.375</v>
+        <v>2331507.25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1725,40 +1725,40 @@
         <v>694810.375</v>
       </c>
       <c r="F17">
-        <v>694807.5625</v>
+        <v>743923</v>
       </c>
       <c r="G17">
-        <v>743923</v>
+        <v>537147.6875</v>
       </c>
       <c r="H17">
-        <v>537147.6875</v>
+        <v>527579.0625</v>
       </c>
       <c r="I17">
-        <v>527579.0625</v>
+        <v>488315.4375</v>
       </c>
       <c r="J17">
-        <v>488315.4375</v>
+        <v>514334.6875</v>
       </c>
       <c r="K17">
-        <v>514334.6875</v>
+        <v>478556.8125</v>
       </c>
       <c r="L17">
-        <v>478556.8125</v>
+        <v>563626.375</v>
       </c>
       <c r="M17">
-        <v>563626.375</v>
+        <v>517459.1268412698</v>
       </c>
       <c r="N17">
-        <v>517459.1268412698</v>
+        <v>440901.5534209268</v>
       </c>
       <c r="O17">
-        <v>440901.5534209268</v>
+        <v>555254.2583367458</v>
       </c>
       <c r="P17">
-        <v>555254.2583367458</v>
+        <v>1282534.5</v>
       </c>
       <c r="Q17">
-        <v>1282534.5</v>
+        <v>2963208</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1778,40 +1778,40 @@
         <v>694811.3125</v>
       </c>
       <c r="F18">
-        <v>694805.5625</v>
+        <v>586153.875</v>
       </c>
       <c r="G18">
-        <v>586153.875</v>
+        <v>579749.4375</v>
       </c>
       <c r="H18">
-        <v>579749.4375</v>
+        <v>576978.6875</v>
       </c>
       <c r="I18">
-        <v>576978.6875</v>
+        <v>580186.75</v>
       </c>
       <c r="J18">
-        <v>580186.75</v>
+        <v>552166.125</v>
       </c>
       <c r="K18">
-        <v>552166.125</v>
+        <v>556697.9375</v>
       </c>
       <c r="L18">
-        <v>556697.9375</v>
+        <v>439900.78125</v>
       </c>
       <c r="M18">
-        <v>439900.78125</v>
+        <v>440650.3237417027</v>
       </c>
       <c r="N18">
-        <v>440650.3237417027</v>
+        <v>447463.9326929805</v>
       </c>
       <c r="O18">
-        <v>447463.9326929805</v>
+        <v>439858.7359338688</v>
       </c>
       <c r="P18">
-        <v>439858.7359338688</v>
+        <v>104649.171875</v>
       </c>
       <c r="Q18">
-        <v>104649.171875</v>
+        <v>539604.25</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1831,40 +1831,40 @@
         <v>694808.4375</v>
       </c>
       <c r="F19">
-        <v>694805</v>
+        <v>573784.75</v>
       </c>
       <c r="G19">
-        <v>573784.75</v>
+        <v>503947.125</v>
       </c>
       <c r="H19">
-        <v>503947.125</v>
+        <v>532795.75</v>
       </c>
       <c r="I19">
-        <v>532795.75</v>
+        <v>513893.875</v>
       </c>
       <c r="J19">
-        <v>513893.875</v>
+        <v>513116.4375</v>
       </c>
       <c r="K19">
-        <v>513116.4375</v>
+        <v>525097.875</v>
       </c>
       <c r="L19">
-        <v>525097.875</v>
+        <v>450120.75</v>
       </c>
       <c r="M19">
-        <v>450120.75</v>
+        <v>469440.278</v>
       </c>
       <c r="N19">
-        <v>469440.278</v>
+        <v>446832.0237231202</v>
       </c>
       <c r="O19">
-        <v>446832.0237231202</v>
+        <v>451309.297253991</v>
       </c>
       <c r="P19">
-        <v>451309.297253991</v>
+        <v>-533458.3125</v>
       </c>
       <c r="Q19">
-        <v>-533458.3125</v>
+        <v>-96126.5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1884,40 +1884,40 @@
         <v>694812.125</v>
       </c>
       <c r="F20">
-        <v>694808.75</v>
+        <v>828256.625</v>
       </c>
       <c r="G20">
-        <v>828256.625</v>
+        <v>542859.3125</v>
       </c>
       <c r="H20">
-        <v>542859.3125</v>
+        <v>564634.875</v>
       </c>
       <c r="I20">
-        <v>564634.875</v>
+        <v>540571.3125</v>
       </c>
       <c r="J20">
-        <v>540571.3125</v>
+        <v>538387.3125</v>
       </c>
       <c r="K20">
-        <v>538387.3125</v>
+        <v>560980.25</v>
       </c>
       <c r="L20">
-        <v>560980.25</v>
+        <v>600814.5625</v>
       </c>
       <c r="M20">
-        <v>600814.5625</v>
+        <v>573387.4349642857</v>
       </c>
       <c r="N20">
-        <v>573387.4349642857</v>
+        <v>470728.6323710653</v>
       </c>
       <c r="O20">
-        <v>470728.6323710653</v>
+        <v>593465.329986565</v>
       </c>
       <c r="P20">
-        <v>593465.329986565</v>
+        <v>2687445.5</v>
       </c>
       <c r="Q20">
-        <v>2687445.5</v>
+        <v>5611990</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1937,40 +1937,40 @@
         <v>694809.9375</v>
       </c>
       <c r="F21">
-        <v>694808.75</v>
+        <v>614323.9375</v>
       </c>
       <c r="G21">
-        <v>614323.9375</v>
+        <v>559348.5625</v>
       </c>
       <c r="H21">
-        <v>559348.5625</v>
+        <v>555225.375</v>
       </c>
       <c r="I21">
-        <v>555225.375</v>
+        <v>572271.9375</v>
       </c>
       <c r="J21">
-        <v>572271.9375</v>
+        <v>533011.1875</v>
       </c>
       <c r="K21">
-        <v>533011.1875</v>
+        <v>552031.4375</v>
       </c>
       <c r="L21">
-        <v>552031.4375</v>
+        <v>472336.53125</v>
       </c>
       <c r="M21">
-        <v>472336.53125</v>
+        <v>473191.3828968254</v>
       </c>
       <c r="N21">
-        <v>473191.3828968254</v>
+        <v>445197.1415961621</v>
       </c>
       <c r="O21">
-        <v>445197.1415961621</v>
+        <v>473041.252252763</v>
       </c>
       <c r="P21">
-        <v>473041.252252763</v>
+        <v>2465210.5</v>
       </c>
       <c r="Q21">
-        <v>2465210.5</v>
+        <v>11209656</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1990,40 +1990,40 @@
         <v>694810.5</v>
       </c>
       <c r="F22">
-        <v>694808.6875</v>
+        <v>931582.8125</v>
       </c>
       <c r="G22">
-        <v>931582.8125</v>
+        <v>564375.6875</v>
       </c>
       <c r="H22">
-        <v>564375.6875</v>
+        <v>577028.375</v>
       </c>
       <c r="I22">
-        <v>577028.375</v>
+        <v>546474.75</v>
       </c>
       <c r="J22">
-        <v>546474.75</v>
+        <v>564078.5</v>
       </c>
       <c r="K22">
-        <v>564078.5</v>
+        <v>560109.6875</v>
       </c>
       <c r="L22">
-        <v>560109.6875</v>
+        <v>448792.25</v>
       </c>
       <c r="M22">
-        <v>448792.25</v>
+        <v>454329.0426785714</v>
       </c>
       <c r="N22">
-        <v>454329.0426785714</v>
+        <v>451572.9395211037</v>
       </c>
       <c r="O22">
-        <v>451572.9395211037</v>
+        <v>448558.0429595842</v>
       </c>
       <c r="P22">
-        <v>448558.0429595842</v>
+        <v>-3546851</v>
       </c>
       <c r="Q22">
-        <v>-3546851</v>
+        <v>9976238</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2043,40 +2043,40 @@
         <v>694810.4375</v>
       </c>
       <c r="F23">
-        <v>694808.0625</v>
+        <v>642137.9375</v>
       </c>
       <c r="G23">
-        <v>642137.9375</v>
+        <v>550585</v>
       </c>
       <c r="H23">
-        <v>550585</v>
+        <v>601022.5</v>
       </c>
       <c r="I23">
-        <v>601022.5</v>
+        <v>580519.25</v>
       </c>
       <c r="J23">
-        <v>580519.25</v>
+        <v>558379.4375</v>
       </c>
       <c r="K23">
-        <v>558379.4375</v>
+        <v>581340.25</v>
       </c>
       <c r="L23">
-        <v>581340.25</v>
+        <v>515182.1875</v>
       </c>
       <c r="M23">
-        <v>515182.1875</v>
+        <v>524089.3990714286</v>
       </c>
       <c r="N23">
-        <v>524089.3990714286</v>
+        <v>502464.4269263567</v>
       </c>
       <c r="O23">
-        <v>502464.4269263567</v>
+        <v>521088.1239207856</v>
       </c>
       <c r="P23">
-        <v>521088.1239207856</v>
+        <v>1123424.75</v>
       </c>
       <c r="Q23">
-        <v>1123424.75</v>
+        <v>26819116</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2096,40 +2096,40 @@
         <v>694811.3125</v>
       </c>
       <c r="F24">
-        <v>694806.625</v>
+        <v>746744.9375</v>
       </c>
       <c r="G24">
-        <v>746744.9375</v>
+        <v>475179.34375</v>
       </c>
       <c r="H24">
-        <v>475179.34375</v>
+        <v>508303.5</v>
       </c>
       <c r="I24">
-        <v>508303.5</v>
+        <v>501485.6875</v>
       </c>
       <c r="J24">
-        <v>501485.6875</v>
+        <v>464674.9375</v>
       </c>
       <c r="K24">
-        <v>464674.9375</v>
+        <v>508246.8125</v>
       </c>
       <c r="L24">
-        <v>508246.8125</v>
+        <v>417877.125</v>
       </c>
       <c r="M24">
-        <v>417877.125</v>
+        <v>416970.2905238096</v>
       </c>
       <c r="N24">
-        <v>416970.2905238096</v>
+        <v>427330.9462671562</v>
       </c>
       <c r="O24">
-        <v>427330.9462671562</v>
+        <v>421886.5723209518</v>
       </c>
       <c r="P24">
-        <v>421886.5723209518</v>
+        <v>7538366.5</v>
       </c>
       <c r="Q24">
-        <v>7538366.5</v>
+        <v>21543056</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2149,40 +2149,40 @@
         <v>694812.9375</v>
       </c>
       <c r="F25">
-        <v>694807.0625</v>
+        <v>873804.875</v>
       </c>
       <c r="G25">
-        <v>873804.875</v>
+        <v>545363.5625</v>
       </c>
       <c r="H25">
-        <v>545363.5625</v>
+        <v>552634.375</v>
       </c>
       <c r="I25">
-        <v>552634.375</v>
+        <v>512808.46875</v>
       </c>
       <c r="J25">
-        <v>512808.46875</v>
+        <v>526550.75</v>
       </c>
       <c r="K25">
-        <v>526550.75</v>
+        <v>513490.15625</v>
       </c>
       <c r="L25">
-        <v>513490.15625</v>
+        <v>340528</v>
       </c>
       <c r="M25">
-        <v>340528</v>
+        <v>350925.2490000001</v>
       </c>
       <c r="N25">
-        <v>350925.2490000001</v>
+        <v>458965.4340274343</v>
       </c>
       <c r="O25">
-        <v>458965.4340274343</v>
+        <v>346252.9644699348</v>
       </c>
       <c r="P25">
-        <v>346252.9644699348</v>
+        <v>5170765</v>
       </c>
       <c r="Q25">
-        <v>5170765</v>
+        <v>28926044</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2202,40 +2202,40 @@
         <v>694811.5625</v>
       </c>
       <c r="F26">
-        <v>694809.5625</v>
+        <v>752639.5625</v>
       </c>
       <c r="G26">
-        <v>752639.5625</v>
+        <v>527694.6875</v>
       </c>
       <c r="H26">
-        <v>527694.6875</v>
+        <v>546713.125</v>
       </c>
       <c r="I26">
-        <v>546713.125</v>
+        <v>527720.5625</v>
       </c>
       <c r="J26">
-        <v>527720.5625</v>
+        <v>543510.1875</v>
       </c>
       <c r="K26">
-        <v>543510.1875</v>
+        <v>535031.9375</v>
       </c>
       <c r="L26">
-        <v>535031.9375</v>
+        <v>418804.34375</v>
       </c>
       <c r="M26">
-        <v>418804.34375</v>
+        <v>423202.3490357144</v>
       </c>
       <c r="N26">
-        <v>423202.3490357144</v>
+        <v>411996.4639868118</v>
       </c>
       <c r="O26">
-        <v>411996.4639868118</v>
+        <v>416753.2129336395</v>
       </c>
       <c r="P26">
-        <v>416753.2129336395</v>
+        <v>7233712</v>
       </c>
       <c r="Q26">
-        <v>7233712</v>
+        <v>37366088</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2255,40 +2255,40 @@
         <v>694810.125</v>
       </c>
       <c r="F27">
-        <v>694807.9375</v>
+        <v>1008287.625</v>
       </c>
       <c r="G27">
-        <v>1008287.625</v>
+        <v>557598.8125</v>
       </c>
       <c r="H27">
-        <v>557598.8125</v>
+        <v>587578.125</v>
       </c>
       <c r="I27">
-        <v>587578.125</v>
+        <v>564623.1875</v>
       </c>
       <c r="J27">
-        <v>564623.1875</v>
+        <v>572923.6875</v>
       </c>
       <c r="K27">
-        <v>572923.6875</v>
+        <v>597093.4375</v>
       </c>
       <c r="L27">
-        <v>597093.4375</v>
+        <v>414985</v>
       </c>
       <c r="M27">
-        <v>414985</v>
+        <v>403217.714</v>
       </c>
       <c r="N27">
-        <v>403217.714</v>
+        <v>458965.4340274343</v>
       </c>
       <c r="O27">
-        <v>458965.4340274343</v>
+        <v>414868.8204266468</v>
       </c>
       <c r="P27">
-        <v>414868.8204266468</v>
+        <v>7231015</v>
       </c>
       <c r="Q27">
-        <v>7231015</v>
+        <v>43806792</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2308,40 +2308,40 @@
         <v>694809.6875</v>
       </c>
       <c r="F28">
-        <v>694806.3125</v>
+        <v>673701.875</v>
       </c>
       <c r="G28">
-        <v>673701.875</v>
+        <v>555955</v>
       </c>
       <c r="H28">
-        <v>555955</v>
+        <v>534814.125</v>
       </c>
       <c r="I28">
-        <v>534814.125</v>
+        <v>539884.75</v>
       </c>
       <c r="J28">
-        <v>539884.75</v>
+        <v>536234.625</v>
       </c>
       <c r="K28">
-        <v>536234.625</v>
+        <v>548785.6875</v>
       </c>
       <c r="L28">
-        <v>548785.6875</v>
+        <v>451951.65625</v>
       </c>
       <c r="M28">
-        <v>451951.65625</v>
+        <v>460553.2228636364</v>
       </c>
       <c r="N28">
-        <v>460553.2228636364</v>
+        <v>435330.5223886665</v>
       </c>
       <c r="O28">
-        <v>435330.5223886665</v>
+        <v>444511.8818542698</v>
       </c>
       <c r="P28">
-        <v>444511.8818542698</v>
+        <v>6279298.5</v>
       </c>
       <c r="Q28">
-        <v>6279298.5</v>
+        <v>52071728</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2361,40 +2361,40 @@
         <v>694811.75</v>
       </c>
       <c r="F29">
-        <v>694807.5625</v>
+        <v>893015.5625</v>
       </c>
       <c r="G29">
-        <v>893015.5625</v>
+        <v>537002.625</v>
       </c>
       <c r="H29">
-        <v>537002.625</v>
+        <v>575793</v>
       </c>
       <c r="I29">
-        <v>575793</v>
+        <v>553841.6875</v>
       </c>
       <c r="J29">
-        <v>553841.6875</v>
+        <v>576867.1875</v>
       </c>
       <c r="K29">
-        <v>576867.1875</v>
+        <v>570608.3125</v>
       </c>
       <c r="L29">
-        <v>570608.3125</v>
+        <v>563626.375</v>
       </c>
       <c r="M29">
-        <v>563626.375</v>
+        <v>517459.1268412698</v>
       </c>
       <c r="N29">
-        <v>517459.1268412698</v>
+        <v>440901.5534209268</v>
       </c>
       <c r="O29">
-        <v>440901.5534209268</v>
+        <v>555254.2583367458</v>
       </c>
       <c r="P29">
-        <v>555254.2583367458</v>
+        <v>11709123</v>
       </c>
       <c r="Q29">
-        <v>11709123</v>
+        <v>53910016</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2414,40 +2414,40 @@
         <v>694814.3125</v>
       </c>
       <c r="F30">
-        <v>694807.5625</v>
+        <v>945793.0625</v>
       </c>
       <c r="G30">
-        <v>945793.0625</v>
+        <v>571235.5</v>
       </c>
       <c r="H30">
-        <v>571235.5</v>
+        <v>587967.4375</v>
       </c>
       <c r="I30">
-        <v>587967.4375</v>
+        <v>587216.625</v>
       </c>
       <c r="J30">
-        <v>587216.625</v>
+        <v>578178.625</v>
       </c>
       <c r="K30">
-        <v>578178.625</v>
+        <v>632548.875</v>
       </c>
       <c r="L30">
-        <v>632548.875</v>
+        <v>472032.0625</v>
       </c>
       <c r="M30">
-        <v>472032.0625</v>
+        <v>462345.044857143</v>
       </c>
       <c r="N30">
-        <v>462345.044857143</v>
+        <v>450135.7426716472</v>
       </c>
       <c r="O30">
-        <v>450135.7426716472</v>
+        <v>470381.5633469126</v>
       </c>
       <c r="P30">
-        <v>470381.5633469126</v>
+        <v>11612528</v>
       </c>
       <c r="Q30">
-        <v>11612528</v>
+        <v>54040056</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2467,40 +2467,40 @@
         <v>694813.125</v>
       </c>
       <c r="F31">
-        <v>694806.4375</v>
+        <v>680790.4375</v>
       </c>
       <c r="G31">
-        <v>680790.4375</v>
+        <v>480095.84375</v>
       </c>
       <c r="H31">
-        <v>480095.84375</v>
+        <v>506458.875</v>
       </c>
       <c r="I31">
-        <v>506458.875</v>
+        <v>458492.78125</v>
       </c>
       <c r="J31">
-        <v>458492.78125</v>
+        <v>488439.40625</v>
       </c>
       <c r="K31">
-        <v>488439.40625</v>
+        <v>522439.34375</v>
       </c>
       <c r="L31">
-        <v>522439.34375</v>
+        <v>418804.34375</v>
       </c>
       <c r="M31">
-        <v>418804.34375</v>
+        <v>423202.3490357144</v>
       </c>
       <c r="N31">
-        <v>423202.3490357144</v>
+        <v>411996.4639868118</v>
       </c>
       <c r="O31">
-        <v>411996.4639868118</v>
+        <v>416753.2129336395</v>
       </c>
       <c r="P31">
-        <v>416753.2129336395</v>
+        <v>9158115</v>
       </c>
       <c r="Q31">
-        <v>9158115</v>
+        <v>51235660</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2520,40 +2520,40 @@
         <v>694811.5625</v>
       </c>
       <c r="F32">
-        <v>694807.5625</v>
+        <v>818307.625</v>
       </c>
       <c r="G32">
-        <v>818307.625</v>
+        <v>616632.25</v>
       </c>
       <c r="H32">
-        <v>616632.25</v>
+        <v>634385.25</v>
       </c>
       <c r="I32">
-        <v>634385.25</v>
+        <v>623757.875</v>
       </c>
       <c r="J32">
-        <v>623757.875</v>
+        <v>652660.6875</v>
       </c>
       <c r="K32">
-        <v>652660.6875</v>
+        <v>638697.5625</v>
       </c>
       <c r="L32">
-        <v>638697.5625</v>
+        <v>515182.1875</v>
       </c>
       <c r="M32">
-        <v>515182.1875</v>
+        <v>524089.3990714286</v>
       </c>
       <c r="N32">
-        <v>524089.3990714286</v>
+        <v>502464.4269263567</v>
       </c>
       <c r="O32">
-        <v>502464.4269263567</v>
+        <v>521088.1239207856</v>
       </c>
       <c r="P32">
-        <v>521088.1239207856</v>
+        <v>24513638</v>
       </c>
       <c r="Q32">
-        <v>24513638</v>
+        <v>50836384</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2573,40 +2573,40 @@
         <v>694812</v>
       </c>
       <c r="F33">
-        <v>694807.25</v>
+        <v>664963.3125</v>
       </c>
       <c r="G33">
-        <v>664963.3125</v>
+        <v>557811.6875</v>
       </c>
       <c r="H33">
-        <v>557811.6875</v>
+        <v>602232.875</v>
       </c>
       <c r="I33">
-        <v>602232.875</v>
+        <v>553131.1875</v>
       </c>
       <c r="J33">
-        <v>553131.1875</v>
+        <v>564790.125</v>
       </c>
       <c r="K33">
-        <v>564790.125</v>
+        <v>581728.25</v>
       </c>
       <c r="L33">
-        <v>581728.25</v>
+        <v>472336.53125</v>
       </c>
       <c r="M33">
-        <v>472336.53125</v>
+        <v>473191.3828968254</v>
       </c>
       <c r="N33">
-        <v>473191.3828968254</v>
+        <v>445197.1415961621</v>
       </c>
       <c r="O33">
-        <v>445197.1415961621</v>
+        <v>473041.252252763</v>
       </c>
       <c r="P33">
-        <v>473041.252252763</v>
+        <v>43874896</v>
       </c>
       <c r="Q33">
-        <v>43874896</v>
+        <v>53598236</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2626,40 +2626,40 @@
         <v>694852.5</v>
       </c>
       <c r="F34">
-        <v>694804.6875</v>
+        <v>706216.25</v>
       </c>
       <c r="G34">
-        <v>706216.25</v>
+        <v>577614.6875</v>
       </c>
       <c r="H34">
-        <v>577614.6875</v>
+        <v>608658.0625</v>
       </c>
       <c r="I34">
-        <v>608658.0625</v>
+        <v>522945.46875</v>
       </c>
       <c r="J34">
-        <v>522945.46875</v>
+        <v>592305.3125</v>
       </c>
       <c r="K34">
-        <v>592305.3125</v>
+        <v>606781.5</v>
       </c>
       <c r="L34">
-        <v>606781.5</v>
+        <v>408662.28125</v>
       </c>
       <c r="M34">
-        <v>408662.28125</v>
+        <v>414486.0072162697</v>
       </c>
       <c r="N34">
-        <v>414486.0072162697</v>
+        <v>419837.1449658123</v>
       </c>
       <c r="O34">
-        <v>419837.1449658123</v>
+        <v>409654.2420833992</v>
       </c>
       <c r="P34">
-        <v>409654.2420833992</v>
+        <v>75550656</v>
       </c>
       <c r="Q34">
-        <v>75550656</v>
+        <v>50917952</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2726,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>11448483753.60213</v>
@@ -2752,111 +2752,111 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>13336233107.53027</v>
+        <v>13336122981.86084</v>
       </c>
       <c r="C4">
-        <v>115482.6095458978</v>
+        <v>115482.1327386226</v>
       </c>
       <c r="D4">
-        <v>0.03603033456557716</v>
+        <v>0.03603028101865492</v>
       </c>
       <c r="E4">
-        <v>69408.78125</v>
+        <v>69408.57291666667</v>
       </c>
       <c r="F4">
-        <v>0.1361750379752901</v>
+        <v>0.136174635495357</v>
       </c>
       <c r="G4">
-        <v>45644.328125</v>
+        <v>45642.03125</v>
       </c>
       <c r="H4">
-        <v>0.1135318917580856</v>
+        <v>0.1135261370369446</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>28933933664.51154</v>
+        <v>13336233107.53027</v>
       </c>
       <c r="C5">
-        <v>170099.7756157001</v>
+        <v>115482.6095458978</v>
       </c>
       <c r="D5">
-        <v>0.114090158467571</v>
+        <v>0.03603033456557716</v>
       </c>
       <c r="E5">
-        <v>143988.7591145833</v>
+        <v>69408.78125</v>
       </c>
       <c r="F5">
-        <v>0.323860765700105</v>
+        <v>0.1361750379752901</v>
       </c>
       <c r="G5">
-        <v>118630.8671875</v>
+        <v>45644.328125</v>
       </c>
       <c r="H5">
-        <v>0.3108232251665679</v>
+        <v>0.1135318917580856</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>29878513690.42631</v>
+        <v>28933933664.51154</v>
       </c>
       <c r="C6">
-        <v>172854.0242239859</v>
+        <v>170099.7756157001</v>
       </c>
       <c r="D6">
-        <v>0.1211272655080943</v>
+        <v>0.114090158467571</v>
       </c>
       <c r="E6">
-        <v>147821.3984375</v>
+        <v>143988.7591145833</v>
       </c>
       <c r="F6">
-        <v>0.3346514012208758</v>
+        <v>0.323860765700105</v>
       </c>
       <c r="G6">
-        <v>115924.3515625</v>
+        <v>118630.8671875</v>
       </c>
       <c r="H6">
-        <v>0.3086950178036821</v>
+        <v>0.3108232251665679</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>36741155697.51103</v>
+        <v>29878513690.42631</v>
       </c>
       <c r="C7">
-        <v>191679.826005532</v>
+        <v>172854.0242239859</v>
       </c>
       <c r="D7">
-        <v>0.198777494687655</v>
+        <v>0.1211272655080943</v>
       </c>
       <c r="E7">
-        <v>163641.3053385417</v>
+        <v>147821.3984375</v>
       </c>
       <c r="F7">
-        <v>0.3837972454848071</v>
+        <v>0.3346514012208758</v>
       </c>
       <c r="G7">
-        <v>150531.09375</v>
+        <v>115924.3515625</v>
       </c>
       <c r="H7">
-        <v>0.3011341914490289</v>
+        <v>0.3086950178036821</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>34464791678.64713</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>33385544211.87189</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>36818750738.60268</v>
@@ -2934,7 +2934,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>42767331120.86646</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>43546243640.76278</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>42010898395.42216</v>
@@ -3012,7 +3012,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>47232454311.17945</v>
@@ -3038,7 +3038,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1658675333838.019</v>
@@ -3089,43 +3089,43 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3145,16 +3145,16 @@
         <v>403827.09375</v>
       </c>
       <c r="F2">
+        <v>355610.03125</v>
+      </c>
+      <c r="G2">
         <v>355608.46875</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>313492.75</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>310994.15625</v>
-      </c>
-      <c r="I2">
-        <v>524785.625</v>
       </c>
       <c r="J2">
         <v>303639</v>
@@ -3198,16 +3198,16 @@
         <v>373086.03125</v>
       </c>
       <c r="F3">
+        <v>355609.3125</v>
+      </c>
+      <c r="G3">
         <v>355606.875</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>276472.71875</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>275601.5625</v>
-      </c>
-      <c r="I3">
-        <v>524784.4375</v>
       </c>
       <c r="J3">
         <v>267445.90625</v>
@@ -3251,16 +3251,16 @@
         <v>377912</v>
       </c>
       <c r="F4">
+        <v>355611.9375</v>
+      </c>
+      <c r="G4">
         <v>355609.125</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>272309.75</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>264993.75</v>
-      </c>
-      <c r="I4">
-        <v>475731.6875</v>
       </c>
       <c r="J4">
         <v>237788.453125</v>
@@ -3304,16 +3304,16 @@
         <v>377567.46875</v>
       </c>
       <c r="F5">
+        <v>355612.5625</v>
+      </c>
+      <c r="G5">
         <v>355610.28125</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>275011.6875</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>262560.9375</v>
-      </c>
-      <c r="I5">
-        <v>363592.71875</v>
       </c>
       <c r="J5">
         <v>241851.859375</v>
@@ -3357,16 +3357,16 @@
         <v>316094.6875</v>
       </c>
       <c r="F6">
+        <v>355608.75</v>
+      </c>
+      <c r="G6">
         <v>355611.65625</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>240340.765625</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>232951.78125</v>
-      </c>
-      <c r="I6">
-        <v>251447.3125</v>
       </c>
       <c r="J6">
         <v>214063.390625</v>
@@ -3410,16 +3410,16 @@
         <v>381312.5</v>
       </c>
       <c r="F7">
+        <v>355608.21875</v>
+      </c>
+      <c r="G7">
         <v>355614.9375</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>282434.875</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>291511.875</v>
-      </c>
-      <c r="I7">
-        <v>139311.8125</v>
       </c>
       <c r="J7">
         <v>273879.25</v>
@@ -3463,16 +3463,16 @@
         <v>366373.375</v>
       </c>
       <c r="F8">
+        <v>355609.5</v>
+      </c>
+      <c r="G8">
         <v>355615.96875</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>275376.9375</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>259727.9375</v>
-      </c>
-      <c r="I8">
-        <v>81400.4296875</v>
       </c>
       <c r="J8">
         <v>267557.40625</v>
@@ -3516,16 +3516,16 @@
         <v>441972.40625</v>
       </c>
       <c r="F9">
+        <v>355610.90625</v>
+      </c>
+      <c r="G9">
         <v>355607.875</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>259234.8125</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>235862.375</v>
-      </c>
-      <c r="I9">
-        <v>142817.734375</v>
       </c>
       <c r="J9">
         <v>215337.1875</v>
@@ -3569,16 +3569,16 @@
         <v>512792.78125</v>
       </c>
       <c r="F10">
+        <v>355611.71875</v>
+      </c>
+      <c r="G10">
         <v>355612.84375</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>301749.75</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>319123.46875</v>
-      </c>
-      <c r="I10">
-        <v>204226.671875</v>
       </c>
       <c r="J10">
         <v>299930.5</v>
@@ -3622,16 +3622,16 @@
         <v>304796.03125</v>
       </c>
       <c r="F11">
+        <v>355613.65625</v>
+      </c>
+      <c r="G11">
         <v>355608.15625</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>234223.265625</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>233144.234375</v>
-      </c>
-      <c r="I11">
-        <v>265646.28125</v>
       </c>
       <c r="J11">
         <v>224994.4375</v>
@@ -3675,16 +3675,16 @@
         <v>288864.3125</v>
       </c>
       <c r="F12">
+        <v>355618.71875</v>
+      </c>
+      <c r="G12">
         <v>355616.65625</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>251208.390625</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>247544.421875</v>
-      </c>
-      <c r="I12">
-        <v>306217.34375</v>
       </c>
       <c r="J12">
         <v>226487.953125</v>
@@ -3728,16 +3728,16 @@
         <v>377394.09375</v>
       </c>
       <c r="F13">
+        <v>355621.625</v>
+      </c>
+      <c r="G13">
         <v>355616.40625</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>313284.1875</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>315131.71875</v>
-      </c>
-      <c r="I13">
-        <v>256477.34375</v>
       </c>
       <c r="J13">
         <v>282995.21875</v>
@@ -3781,16 +3781,16 @@
         <v>372854.21875</v>
       </c>
       <c r="F14">
+        <v>355629.96875</v>
+      </c>
+      <c r="G14">
         <v>355613.40625</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>250612.46875</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>237127.9375</v>
-      </c>
-      <c r="I14">
-        <v>206750.3125</v>
       </c>
       <c r="J14">
         <v>220732.96875</v>
@@ -3834,16 +3834,16 @@
         <v>372608.6875</v>
       </c>
       <c r="F15">
+        <v>355638.5625</v>
+      </c>
+      <c r="G15">
         <v>355613.3125</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>286294.21875</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>278579.53125</v>
-      </c>
-      <c r="I15">
-        <v>157094.140625</v>
       </c>
       <c r="J15">
         <v>273062.28125</v>
@@ -3887,16 +3887,16 @@
         <v>385665.90625</v>
       </c>
       <c r="F16">
+        <v>355659.5625</v>
+      </c>
+      <c r="G16">
         <v>355616.5625</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>283451.5</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>280082.78125</v>
-      </c>
-      <c r="I16">
-        <v>120716.4140625</v>
       </c>
       <c r="J16">
         <v>256977.46875</v>
@@ -3940,16 +3940,16 @@
         <v>340727.6875</v>
       </c>
       <c r="F17">
+        <v>355679.125</v>
+      </c>
+      <c r="G17">
         <v>355611.4375</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>241899.015625</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>234015.921875</v>
-      </c>
-      <c r="I17">
-        <v>284734.78125</v>
       </c>
       <c r="J17">
         <v>242825.5625</v>
@@ -3993,16 +3993,16 @@
         <v>243991.53125</v>
       </c>
       <c r="F18">
+        <v>355680.875</v>
+      </c>
+      <c r="G18">
         <v>355608.78125</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>289887.15625</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>280449.75</v>
-      </c>
-      <c r="I18">
-        <v>448748.96875</v>
       </c>
       <c r="J18">
         <v>281443.9375</v>
@@ -4046,16 +4046,16 @@
         <v>286709.0625</v>
       </c>
       <c r="F19">
+        <v>355683</v>
+      </c>
+      <c r="G19">
         <v>355613.03125</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>260251.109375</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>276444.4375</v>
-      </c>
-      <c r="I19">
-        <v>612774.6875</v>
       </c>
       <c r="J19">
         <v>246796.453125</v>
@@ -4099,16 +4099,16 @@
         <v>393041.9375</v>
       </c>
       <c r="F20">
+        <v>355684.59375</v>
+      </c>
+      <c r="G20">
         <v>355612</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>224625.828125</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>240390.703125</v>
-      </c>
-      <c r="I20">
-        <v>776804.375</v>
       </c>
       <c r="J20">
         <v>244374.125</v>
@@ -4152,16 +4152,16 @@
         <v>308946.6875</v>
       </c>
       <c r="F21">
+        <v>355684.6875</v>
+      </c>
+      <c r="G21">
         <v>355610.1875</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>292355.96875</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>295801.28125</v>
-      </c>
-      <c r="I21">
-        <v>883653.1875</v>
       </c>
       <c r="J21">
         <v>301109.375</v>
@@ -4205,16 +4205,16 @@
         <v>492260.65625</v>
       </c>
       <c r="F22">
+        <v>355684.03125</v>
+      </c>
+      <c r="G22">
         <v>355615.0625</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>271337.15625</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>285243.4375</v>
-      </c>
-      <c r="I22">
-        <v>986687.875</v>
       </c>
       <c r="J22">
         <v>277134.90625</v>
@@ -4258,16 +4258,16 @@
         <v>296107.8125</v>
       </c>
       <c r="F23">
+        <v>355683</v>
+      </c>
+      <c r="G23">
         <v>355613.8125</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>234026.15625</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>254664</v>
-      </c>
-      <c r="I23">
-        <v>1089721.125</v>
       </c>
       <c r="J23">
         <v>254118.734375</v>
@@ -4311,16 +4311,16 @@
         <v>412081.34375</v>
       </c>
       <c r="F24">
+        <v>355683.3125</v>
+      </c>
+      <c r="G24">
         <v>355611.65625</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>228182.34375</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>218361.484375</v>
-      </c>
-      <c r="I24">
-        <v>1192756.5</v>
       </c>
       <c r="J24">
         <v>225077.859375</v>
@@ -4364,16 +4364,16 @@
         <v>398869.65625</v>
       </c>
       <c r="F25">
+        <v>355685.40625</v>
+      </c>
+      <c r="G25">
         <v>355610.46875</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>267721.4375</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>281332.46875</v>
-      </c>
-      <c r="I25">
-        <v>1037758.9375</v>
       </c>
       <c r="J25">
         <v>282996.84375</v>
@@ -4417,16 +4417,16 @@
         <v>369817.1875</v>
       </c>
       <c r="F26">
+        <v>355685.71875</v>
+      </c>
+      <c r="G26">
         <v>355613.59375</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>242607.53125</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>256817.71875</v>
-      </c>
-      <c r="I26">
-        <v>823223.375</v>
       </c>
       <c r="J26">
         <v>271610.28125</v>
@@ -4470,16 +4470,16 @@
         <v>518501.875</v>
       </c>
       <c r="F27">
+        <v>355684.3125</v>
+      </c>
+      <c r="G27">
         <v>355610.75</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>262644.8125</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>291240.0625</v>
-      </c>
-      <c r="I27">
-        <v>608683.8125</v>
       </c>
       <c r="J27">
         <v>299556.6875</v>
@@ -4523,16 +4523,16 @@
         <v>324472.59375</v>
       </c>
       <c r="F28">
+        <v>355682.71875</v>
+      </c>
+      <c r="G28">
         <v>355610.25</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>261285.640625</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>284083</v>
-      </c>
-      <c r="I28">
-        <v>394133.53125</v>
       </c>
       <c r="J28">
         <v>270759.375</v>
@@ -4576,16 +4576,16 @@
         <v>439667.5625</v>
       </c>
       <c r="F29">
+        <v>355681.28125</v>
+      </c>
+      <c r="G29">
         <v>355611.5625</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>244912.28125</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>258124.9375</v>
-      </c>
-      <c r="I29">
-        <v>793033.3125</v>
       </c>
       <c r="J29">
         <v>264738.40625</v>
@@ -4629,16 +4629,16 @@
         <v>483706.6875</v>
       </c>
       <c r="F30">
+        <v>355699.71875</v>
+      </c>
+      <c r="G30">
         <v>355612.25</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>297752.46875</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>314021.5</v>
-      </c>
-      <c r="I30">
-        <v>1470763.125</v>
       </c>
       <c r="J30">
         <v>310348.25</v>
@@ -4682,16 +4682,16 @@
         <v>304092</v>
       </c>
       <c r="F31">
+        <v>355733.21875</v>
+      </c>
+      <c r="G31">
         <v>355613.96875</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>191077.125</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>228001.375</v>
-      </c>
-      <c r="I31">
-        <v>2148495.25</v>
       </c>
       <c r="J31">
         <v>238221.21875</v>
@@ -4735,16 +4735,16 @@
         <v>387848.59375</v>
       </c>
       <c r="F32">
+        <v>355749.28125</v>
+      </c>
+      <c r="G32">
         <v>355612.65625</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>243044.0625</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>259286.1875</v>
-      </c>
-      <c r="I32">
-        <v>2826227</v>
       </c>
       <c r="J32">
         <v>258141.0625</v>
@@ -4788,16 +4788,16 @@
         <v>351109.375</v>
       </c>
       <c r="F33">
+        <v>355760.6875</v>
+      </c>
+      <c r="G33">
         <v>355615.90625</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>287398.5</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>293182.71875</v>
-      </c>
-      <c r="I33">
-        <v>3122738.5</v>
       </c>
       <c r="J33">
         <v>289595.8125</v>
@@ -4841,16 +4841,16 @@
         <v>367770.875</v>
       </c>
       <c r="F34">
+        <v>355773.78125</v>
+      </c>
+      <c r="G34">
         <v>355612.125</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>256669.796875</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>256818.484375</v>
-      </c>
-      <c r="I34">
-        <v>3122732.5</v>
       </c>
       <c r="J34">
         <v>265959.5625</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>18572614049.11637</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>34642538335.49038</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>36249208687.36847</v>
@@ -5045,28 +5045,28 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>33374985842.8179</v>
+        <v>38276684318.53595</v>
       </c>
       <c r="C7">
-        <v>182688.2203176162</v>
+        <v>195644.2800557582</v>
       </c>
       <c r="D7">
-        <v>0.1437903011992979</v>
+        <v>0.1328548160524425</v>
       </c>
       <c r="E7">
-        <v>140372.9095052083</v>
+        <v>152549.9440104167</v>
       </c>
       <c r="F7">
-        <v>0.3261857988230902</v>
+        <v>0.3497546747513998</v>
       </c>
       <c r="G7">
-        <v>108806.15625</v>
+        <v>117882.21875</v>
       </c>
       <c r="H7">
-        <v>0.3344257565459415</v>
+        <v>0.3306176629583353</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5074,25 +5074,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>38276684318.53595</v>
+        <v>40050622294.94285</v>
       </c>
       <c r="C8">
-        <v>195644.2800557582</v>
+        <v>200126.5157217875</v>
       </c>
       <c r="D8">
-        <v>0.1328548160524425</v>
+        <v>0.1433243358490246</v>
       </c>
       <c r="E8">
-        <v>152549.9440104167</v>
+        <v>158230.8528645833</v>
       </c>
       <c r="F8">
-        <v>0.3497546747513998</v>
+        <v>0.3652804943444793</v>
       </c>
       <c r="G8">
-        <v>117882.21875</v>
+        <v>127553.65625</v>
       </c>
       <c r="H8">
-        <v>0.3306176629583353</v>
+        <v>0.3480054351708012</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5100,155 +5100,155 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>40050622294.94285</v>
+        <v>47281036093.87399</v>
       </c>
       <c r="C9">
-        <v>200126.5157217875</v>
+        <v>217442.029271882</v>
       </c>
       <c r="D9">
-        <v>0.1433243358490246</v>
+        <v>0.1728235975556741</v>
       </c>
       <c r="E9">
-        <v>158230.8528645833</v>
+        <v>173569.6536458333</v>
       </c>
       <c r="F9">
-        <v>0.3652804943444793</v>
+        <v>0.4019103304696799</v>
       </c>
       <c r="G9">
-        <v>127553.65625</v>
+        <v>136271.3671875</v>
       </c>
       <c r="H9">
-        <v>0.3480054351708012</v>
+        <v>0.3894354884531631</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>47281036093.87399</v>
+        <v>47687423446.60449</v>
       </c>
       <c r="C10">
-        <v>217442.029271882</v>
+        <v>218374.5027392266</v>
       </c>
       <c r="D10">
-        <v>0.1728235975556741</v>
+        <v>0.1831427657546531</v>
       </c>
       <c r="E10">
-        <v>173569.6536458333</v>
+        <v>177010.4736167154</v>
       </c>
       <c r="F10">
-        <v>0.4019103304696799</v>
+        <v>0.4137353945087603</v>
       </c>
       <c r="G10">
-        <v>136271.3671875</v>
+        <v>139117.8644073562</v>
       </c>
       <c r="H10">
-        <v>0.3894354884531631</v>
+        <v>0.3980025503847209</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>47687423446.60449</v>
+        <v>47843972098.72556</v>
       </c>
       <c r="C11">
-        <v>218374.5027392266</v>
+        <v>218732.6498233073</v>
       </c>
       <c r="D11">
-        <v>0.1831427657546531</v>
+        <v>0.1905427855168422</v>
       </c>
       <c r="E11">
-        <v>177010.4736167154</v>
+        <v>181198.1752365486</v>
       </c>
       <c r="F11">
-        <v>0.4137353945087603</v>
+        <v>0.4266919041191881</v>
       </c>
       <c r="G11">
-        <v>139117.8644073562</v>
+        <v>142435.8363888138</v>
       </c>
       <c r="H11">
-        <v>0.3980025503847209</v>
+        <v>0.3898326815582217</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>47843972098.72556</v>
+        <v>48423814682.33453</v>
       </c>
       <c r="C12">
-        <v>218732.6498233073</v>
+        <v>220054.1176218581</v>
       </c>
       <c r="D12">
-        <v>0.1905427855168422</v>
+        <v>0.1866744497408669</v>
       </c>
       <c r="E12">
-        <v>181198.1752365486</v>
+        <v>178668.2571352382</v>
       </c>
       <c r="F12">
-        <v>0.4266919041191881</v>
+        <v>0.4173853425763671</v>
       </c>
       <c r="G12">
-        <v>142435.8363888138</v>
+        <v>145806.5657425908</v>
       </c>
       <c r="H12">
-        <v>0.3898326815582217</v>
+        <v>0.405883904466373</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>48423814682.33453</v>
+        <v>50060025782.77866</v>
       </c>
       <c r="C13">
-        <v>220054.1176218581</v>
+        <v>223740.979221015</v>
       </c>
       <c r="D13">
-        <v>0.1866744497408669</v>
+        <v>0.195080451375112</v>
       </c>
       <c r="E13">
-        <v>178668.2571352382</v>
+        <v>181643.0091145833</v>
       </c>
       <c r="F13">
-        <v>0.4173853425763671</v>
+        <v>0.4243611051310675</v>
       </c>
       <c r="G13">
-        <v>145806.5657425908</v>
+        <v>140610.9453125</v>
       </c>
       <c r="H13">
-        <v>0.405883904466373</v>
+        <v>0.4084738872304106</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>50060025782.77866</v>
+        <v>209584467570.3126</v>
       </c>
       <c r="C14">
-        <v>223740.979221015</v>
+        <v>457803.9619425684</v>
       </c>
       <c r="D14">
-        <v>0.195080451375112</v>
+        <v>1.104567443737948</v>
       </c>
       <c r="E14">
-        <v>181643.0091145833</v>
+        <v>379758.9661458333</v>
       </c>
       <c r="F14">
-        <v>0.4243611051310675</v>
+        <v>0.9375818264389753</v>
       </c>
       <c r="G14">
-        <v>140610.9453125</v>
+        <v>352940.21875</v>
       </c>
       <c r="H14">
-        <v>0.4084738872304106</v>
+        <v>0.9984321998675685</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5256,25 +5256,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>209584467570.3126</v>
+        <v>443766338497.6984</v>
       </c>
       <c r="C15">
-        <v>457803.9619425684</v>
+        <v>666157.8930686767</v>
       </c>
       <c r="D15">
-        <v>1.104567443737948</v>
+        <v>3.598782348485963</v>
       </c>
       <c r="E15">
-        <v>379758.9661458333</v>
+        <v>558769.203125</v>
       </c>
       <c r="F15">
-        <v>0.9375818264389753</v>
+        <v>1.565227904948894</v>
       </c>
       <c r="G15">
-        <v>352940.21875</v>
+        <v>555131.625</v>
       </c>
       <c r="H15">
-        <v>0.9984321998675685</v>
+        <v>1.61372557731611</v>
       </c>
     </row>
   </sheetData>
@@ -5307,16 +5307,16 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -5325,19 +5325,19 @@
         <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
@@ -5369,31 +5369,31 @@
         <v>216679.703125</v>
       </c>
       <c r="I2">
-        <v>442154</v>
+        <v>217535.765625</v>
       </c>
       <c r="J2">
-        <v>217535.765625</v>
+        <v>199957.375</v>
       </c>
       <c r="K2">
-        <v>199957.375</v>
+        <v>197079.796875</v>
       </c>
       <c r="L2">
-        <v>197079.796875</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M2">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N2">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O2">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P2">
-        <v>186858.078125</v>
+        <v>-112289.484375</v>
       </c>
       <c r="Q2">
-        <v>-112289.484375</v>
+        <v>998024</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5422,31 +5422,31 @@
         <v>282931.6875</v>
       </c>
       <c r="I3">
-        <v>380696.40625</v>
+        <v>274012.90625</v>
       </c>
       <c r="J3">
-        <v>274012.90625</v>
+        <v>267301.5625</v>
       </c>
       <c r="K3">
-        <v>267301.5625</v>
+        <v>226597.234375</v>
       </c>
       <c r="L3">
-        <v>226597.234375</v>
+        <v>236039.7116089126</v>
       </c>
       <c r="M3">
-        <v>236039.7116089126</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N3">
-        <v>247072.1579664879</v>
+        <v>234406.9771491842</v>
       </c>
       <c r="O3">
-        <v>234406.9771491842</v>
+        <v>231223.359375</v>
       </c>
       <c r="P3">
-        <v>231223.359375</v>
+        <v>-196126.140625</v>
       </c>
       <c r="Q3">
-        <v>-196126.140625</v>
+        <v>676316.75</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5475,31 +5475,31 @@
         <v>235566.8125</v>
       </c>
       <c r="I4">
-        <v>249586.6875</v>
+        <v>225637.046875</v>
       </c>
       <c r="J4">
-        <v>225637.046875</v>
+        <v>221230.3125</v>
       </c>
       <c r="K4">
-        <v>221230.3125</v>
+        <v>206672.46875</v>
       </c>
       <c r="L4">
-        <v>206672.46875</v>
+        <v>211988.8750972823</v>
       </c>
       <c r="M4">
-        <v>211988.8750972823</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N4">
-        <v>217145.9842669504</v>
+        <v>206491.0428957709</v>
       </c>
       <c r="O4">
-        <v>206491.0428957709</v>
+        <v>208215.03125</v>
       </c>
       <c r="P4">
-        <v>208215.03125</v>
+        <v>752398.0625</v>
       </c>
       <c r="Q4">
-        <v>752398.0625</v>
+        <v>8255.65625</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5528,31 +5528,31 @@
         <v>229171.28125</v>
       </c>
       <c r="I5">
-        <v>197343.609375</v>
+        <v>222863.578125</v>
       </c>
       <c r="J5">
-        <v>222863.578125</v>
+        <v>214387.515625</v>
       </c>
       <c r="K5">
-        <v>214387.515625</v>
+        <v>195640.453125</v>
       </c>
       <c r="L5">
-        <v>195640.453125</v>
+        <v>185041.232644487</v>
       </c>
       <c r="M5">
-        <v>185041.232644487</v>
+        <v>188263.410198064</v>
       </c>
       <c r="N5">
-        <v>188263.410198064</v>
+        <v>188135.6153014209</v>
       </c>
       <c r="O5">
-        <v>188135.6153014209</v>
+        <v>187813.0625</v>
       </c>
       <c r="P5">
-        <v>187813.0625</v>
+        <v>608068.9375</v>
       </c>
       <c r="Q5">
-        <v>608068.9375</v>
+        <v>1273624</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5581,31 +5581,31 @@
         <v>277189</v>
       </c>
       <c r="I6">
-        <v>260324.5</v>
+        <v>267291.625</v>
       </c>
       <c r="J6">
-        <v>267291.625</v>
+        <v>263964.3125</v>
       </c>
       <c r="K6">
-        <v>263964.3125</v>
+        <v>244350.84375</v>
       </c>
       <c r="L6">
-        <v>244350.84375</v>
+        <v>236039.7116089126</v>
       </c>
       <c r="M6">
-        <v>236039.7116089126</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N6">
-        <v>247072.1579664879</v>
+        <v>234406.9771491842</v>
       </c>
       <c r="O6">
-        <v>234406.9771491842</v>
+        <v>231223.359375</v>
       </c>
       <c r="P6">
-        <v>231223.359375</v>
+        <v>760566</v>
       </c>
       <c r="Q6">
-        <v>760566</v>
+        <v>-590380.625</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -5634,31 +5634,31 @@
         <v>236934.71875</v>
       </c>
       <c r="I7">
-        <v>312832.96875</v>
+        <v>225540.515625</v>
       </c>
       <c r="J7">
-        <v>225540.515625</v>
+        <v>229466.65625</v>
       </c>
       <c r="K7">
-        <v>229466.65625</v>
+        <v>211259.75</v>
       </c>
       <c r="L7">
-        <v>211259.75</v>
+        <v>252507.3195576054</v>
       </c>
       <c r="M7">
-        <v>252507.3195576054</v>
+        <v>214940.743324771</v>
       </c>
       <c r="N7">
-        <v>214940.743324771</v>
+        <v>256047.8406666667</v>
       </c>
       <c r="O7">
-        <v>256047.8406666667</v>
+        <v>255243.6875</v>
       </c>
       <c r="P7">
-        <v>255243.6875</v>
+        <v>874052.1875</v>
       </c>
       <c r="Q7">
-        <v>874052.1875</v>
+        <v>282438.09375</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -5687,31 +5687,31 @@
         <v>275022.8125</v>
       </c>
       <c r="I8">
-        <v>345331.8125</v>
+        <v>264007.625</v>
       </c>
       <c r="J8">
-        <v>264007.625</v>
+        <v>261411.53125</v>
       </c>
       <c r="K8">
-        <v>261411.53125</v>
+        <v>238042.65625</v>
       </c>
       <c r="L8">
-        <v>238042.65625</v>
+        <v>239620.3036189576</v>
       </c>
       <c r="M8">
-        <v>239620.3036189576</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N8">
-        <v>247072.1579664879</v>
+        <v>230345.7111904762</v>
       </c>
       <c r="O8">
-        <v>230345.7111904762</v>
+        <v>182258.15625</v>
       </c>
       <c r="P8">
-        <v>182258.15625</v>
+        <v>222106.15625</v>
       </c>
       <c r="Q8">
-        <v>222106.15625</v>
+        <v>705835.9375</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5740,31 +5740,31 @@
         <v>251965.03125</v>
       </c>
       <c r="I9">
-        <v>329942.8125</v>
+        <v>250764.796875</v>
       </c>
       <c r="J9">
-        <v>250764.796875</v>
+        <v>239286.265625</v>
       </c>
       <c r="K9">
-        <v>239286.265625</v>
+        <v>222805.34375</v>
       </c>
       <c r="L9">
-        <v>222805.34375</v>
+        <v>181092.6954715423</v>
       </c>
       <c r="M9">
-        <v>181092.6954715423</v>
+        <v>193152.0614021899</v>
       </c>
       <c r="N9">
-        <v>193152.0614021899</v>
+        <v>179744.6474663025</v>
       </c>
       <c r="O9">
-        <v>179744.6474663025</v>
+        <v>177912.75</v>
       </c>
       <c r="P9">
-        <v>177912.75</v>
+        <v>720942.4375</v>
       </c>
       <c r="Q9">
-        <v>720942.4375</v>
+        <v>1661997.75</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -5793,31 +5793,31 @@
         <v>241706.484375</v>
       </c>
       <c r="I10">
-        <v>192184.75</v>
+        <v>241559.65625</v>
       </c>
       <c r="J10">
-        <v>241559.65625</v>
+        <v>233373.453125</v>
       </c>
       <c r="K10">
-        <v>233373.453125</v>
+        <v>231816.671875</v>
       </c>
       <c r="L10">
-        <v>231816.671875</v>
+        <v>230323.3181638079</v>
       </c>
       <c r="M10">
-        <v>230323.3181638079</v>
+        <v>214940.743324771</v>
       </c>
       <c r="N10">
-        <v>214940.743324771</v>
+        <v>234366.5366327839</v>
       </c>
       <c r="O10">
-        <v>234366.5366327839</v>
+        <v>236803.4375</v>
       </c>
       <c r="P10">
-        <v>236803.4375</v>
+        <v>479666.5625</v>
       </c>
       <c r="Q10">
-        <v>479666.5625</v>
+        <v>953332.625</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -5846,31 +5846,31 @@
         <v>294887.875</v>
       </c>
       <c r="I11">
-        <v>108177.9453125</v>
+        <v>282861.25</v>
       </c>
       <c r="J11">
-        <v>282861.25</v>
+        <v>270174.53125</v>
       </c>
       <c r="K11">
-        <v>270174.53125</v>
+        <v>268134.5625</v>
       </c>
       <c r="L11">
-        <v>268134.5625</v>
+        <v>236039.7116089126</v>
       </c>
       <c r="M11">
-        <v>236039.7116089126</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N11">
-        <v>247072.1579664879</v>
+        <v>234406.9771491842</v>
       </c>
       <c r="O11">
-        <v>234406.9771491842</v>
+        <v>231223.359375</v>
       </c>
       <c r="P11">
-        <v>231223.359375</v>
+        <v>-237850.046875</v>
       </c>
       <c r="Q11">
-        <v>-237850.046875</v>
+        <v>1023953.25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -5899,31 +5899,31 @@
         <v>259989.375</v>
       </c>
       <c r="I12">
-        <v>216128.9375</v>
+        <v>257107.015625</v>
       </c>
       <c r="J12">
-        <v>257107.015625</v>
+        <v>262532.375</v>
       </c>
       <c r="K12">
-        <v>262532.375</v>
+        <v>235368.296875</v>
       </c>
       <c r="L12">
-        <v>235368.296875</v>
+        <v>271513.3960880052</v>
       </c>
       <c r="M12">
-        <v>271513.3960880052</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N12">
-        <v>217145.9842669504</v>
+        <v>263633.8256190476</v>
       </c>
       <c r="O12">
-        <v>263633.8256190476</v>
+        <v>285023.53125</v>
       </c>
       <c r="P12">
-        <v>285023.53125</v>
+        <v>392716.71875</v>
       </c>
       <c r="Q12">
-        <v>392716.71875</v>
+        <v>213702.875</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5952,31 +5952,31 @@
         <v>219849.578125</v>
       </c>
       <c r="I13">
-        <v>329953.34375</v>
+        <v>220590.890625</v>
       </c>
       <c r="J13">
-        <v>220590.890625</v>
+        <v>218515.875</v>
       </c>
       <c r="K13">
-        <v>218515.875</v>
+        <v>219768.078125</v>
       </c>
       <c r="L13">
-        <v>219768.078125</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M13">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N13">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O13">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P13">
-        <v>186858.078125</v>
+        <v>144535.390625</v>
       </c>
       <c r="Q13">
-        <v>144535.390625</v>
+        <v>-192827.625</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -6005,31 +6005,31 @@
         <v>273089.1875</v>
       </c>
       <c r="I14">
-        <v>475451.9375</v>
+        <v>258298.65625</v>
       </c>
       <c r="J14">
-        <v>258298.65625</v>
+        <v>264457.90625</v>
       </c>
       <c r="K14">
-        <v>264457.90625</v>
+        <v>259163.078125</v>
       </c>
       <c r="L14">
-        <v>259163.078125</v>
+        <v>228887.9993230705</v>
       </c>
       <c r="M14">
-        <v>228887.9993230705</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N14">
-        <v>247072.1579664879</v>
+        <v>236201.3410122654</v>
       </c>
       <c r="O14">
-        <v>236201.3410122654</v>
+        <v>233539.125</v>
       </c>
       <c r="P14">
-        <v>233539.125</v>
+        <v>458461.1875</v>
       </c>
       <c r="Q14">
-        <v>458461.1875</v>
+        <v>912886</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -6058,31 +6058,31 @@
         <v>293340.21875</v>
       </c>
       <c r="I15">
-        <v>587854.125</v>
+        <v>273510.4375</v>
       </c>
       <c r="J15">
-        <v>273510.4375</v>
+        <v>281039.6875</v>
       </c>
       <c r="K15">
-        <v>281039.6875</v>
+        <v>276969.0625</v>
       </c>
       <c r="L15">
-        <v>276969.0625</v>
+        <v>254354.393127704</v>
       </c>
       <c r="M15">
-        <v>254354.393127704</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N15">
-        <v>247072.1579664879</v>
+        <v>246906.9511507936</v>
       </c>
       <c r="O15">
-        <v>246906.9511507936</v>
+        <v>289482.5</v>
       </c>
       <c r="P15">
-        <v>289482.5</v>
+        <v>459797.59375</v>
       </c>
       <c r="Q15">
-        <v>459797.59375</v>
+        <v>544254.8125</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -6111,31 +6111,31 @@
         <v>226120.28125</v>
       </c>
       <c r="I16">
-        <v>380390.1875</v>
+        <v>224586.46875</v>
       </c>
       <c r="J16">
-        <v>224586.46875</v>
+        <v>225411.484375</v>
       </c>
       <c r="K16">
-        <v>225411.484375</v>
+        <v>224957.796875</v>
       </c>
       <c r="L16">
-        <v>224957.796875</v>
+        <v>230323.3181638079</v>
       </c>
       <c r="M16">
-        <v>230323.3181638079</v>
+        <v>214940.743324771</v>
       </c>
       <c r="N16">
-        <v>214940.743324771</v>
+        <v>234366.5366327839</v>
       </c>
       <c r="O16">
-        <v>234366.5366327839</v>
+        <v>236803.4375</v>
       </c>
       <c r="P16">
-        <v>236803.4375</v>
+        <v>504095.03125</v>
       </c>
       <c r="Q16">
-        <v>504095.03125</v>
+        <v>1110769.5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -6164,31 +6164,31 @@
         <v>278850.625</v>
       </c>
       <c r="I17">
-        <v>181425.4375</v>
+        <v>271686.78125</v>
       </c>
       <c r="J17">
-        <v>271686.78125</v>
+        <v>278023.96875</v>
       </c>
       <c r="K17">
-        <v>278023.96875</v>
+        <v>280212.53125</v>
       </c>
       <c r="L17">
-        <v>280212.53125</v>
+        <v>225836.4577320142</v>
       </c>
       <c r="M17">
-        <v>225836.4577320142</v>
+        <v>193152.0614021899</v>
       </c>
       <c r="N17">
-        <v>193152.0614021899</v>
+        <v>235575.7194642857</v>
       </c>
       <c r="O17">
-        <v>235575.7194642857</v>
+        <v>234883.09375</v>
       </c>
       <c r="P17">
-        <v>234883.09375</v>
+        <v>1078711.375</v>
       </c>
       <c r="Q17">
-        <v>1078711.375</v>
+        <v>1005203.75</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -6217,31 +6217,31 @@
         <v>257800.609375</v>
       </c>
       <c r="I18">
-        <v>245921.78125</v>
+        <v>244387.78125</v>
       </c>
       <c r="J18">
-        <v>244387.78125</v>
+        <v>252215.890625</v>
       </c>
       <c r="K18">
-        <v>252215.890625</v>
+        <v>249800.4375</v>
       </c>
       <c r="L18">
-        <v>249800.4375</v>
+        <v>211988.8750972823</v>
       </c>
       <c r="M18">
-        <v>211988.8750972823</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N18">
-        <v>217145.9842669504</v>
+        <v>206491.0428957709</v>
       </c>
       <c r="O18">
-        <v>206491.0428957709</v>
+        <v>208215.03125</v>
       </c>
       <c r="P18">
-        <v>208215.03125</v>
+        <v>386577.53125</v>
       </c>
       <c r="Q18">
-        <v>386577.53125</v>
+        <v>210100.546875</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -6270,31 +6270,31 @@
         <v>289644.71875</v>
       </c>
       <c r="I19">
-        <v>310429.71875</v>
+        <v>280243.40625</v>
       </c>
       <c r="J19">
-        <v>280243.40625</v>
+        <v>283737.6875</v>
       </c>
       <c r="K19">
-        <v>283737.6875</v>
+        <v>283791.28125</v>
       </c>
       <c r="L19">
-        <v>283791.28125</v>
+        <v>271469.2837769453</v>
       </c>
       <c r="M19">
-        <v>271469.2837769453</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N19">
-        <v>217145.9842669504</v>
+        <v>258420.31</v>
       </c>
       <c r="O19">
-        <v>258420.31</v>
+        <v>282031.03125</v>
       </c>
       <c r="P19">
-        <v>282031.03125</v>
+        <v>-212464.09375</v>
       </c>
       <c r="Q19">
-        <v>-212464.09375</v>
+        <v>6632430.5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -6323,31 +6323,31 @@
         <v>293981.78125</v>
       </c>
       <c r="I20">
-        <v>276175.78125</v>
+        <v>283194.125</v>
       </c>
       <c r="J20">
-        <v>283194.125</v>
+        <v>278877.96875</v>
       </c>
       <c r="K20">
-        <v>278877.96875</v>
+        <v>290664.4375</v>
       </c>
       <c r="L20">
-        <v>290664.4375</v>
+        <v>295183.3116348342</v>
       </c>
       <c r="M20">
-        <v>295183.3116348342</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N20">
-        <v>247072.1579664879</v>
+        <v>295914.1084761905</v>
       </c>
       <c r="O20">
-        <v>295914.1084761905</v>
+        <v>295538.53125</v>
       </c>
       <c r="P20">
-        <v>295538.53125</v>
+        <v>471860.875</v>
       </c>
       <c r="Q20">
-        <v>471860.875</v>
+        <v>5842793</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -6376,31 +6376,31 @@
         <v>230849.203125</v>
       </c>
       <c r="I21">
-        <v>238746.90625</v>
+        <v>220751.15625</v>
       </c>
       <c r="J21">
-        <v>220751.15625</v>
+        <v>225009.78125</v>
       </c>
       <c r="K21">
-        <v>225009.78125</v>
+        <v>229292.65625</v>
       </c>
       <c r="L21">
-        <v>229292.65625</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M21">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N21">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O21">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P21">
-        <v>186858.078125</v>
+        <v>819380.4375</v>
       </c>
       <c r="Q21">
-        <v>819380.4375</v>
+        <v>10868461</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -6429,31 +6429,31 @@
         <v>271263.53125</v>
       </c>
       <c r="I22">
-        <v>272988.53125</v>
+        <v>268133.40625</v>
       </c>
       <c r="J22">
-        <v>268133.40625</v>
+        <v>267925.9375</v>
       </c>
       <c r="K22">
-        <v>267925.9375</v>
+        <v>268944.53125</v>
       </c>
       <c r="L22">
-        <v>268944.53125</v>
+        <v>228887.9993230705</v>
       </c>
       <c r="M22">
-        <v>228887.9993230705</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N22">
-        <v>247072.1579664879</v>
+        <v>236201.3410122654</v>
       </c>
       <c r="O22">
-        <v>236201.3410122654</v>
+        <v>233539.125</v>
       </c>
       <c r="P22">
-        <v>233539.125</v>
+        <v>97016.984375</v>
       </c>
       <c r="Q22">
-        <v>97016.984375</v>
+        <v>12246509</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -6482,31 +6482,31 @@
         <v>332122.6875</v>
       </c>
       <c r="I23">
-        <v>314635</v>
+        <v>322048.5</v>
       </c>
       <c r="J23">
-        <v>322048.5</v>
+        <v>320597.21875</v>
       </c>
       <c r="K23">
-        <v>320597.21875</v>
+        <v>325766.53125</v>
       </c>
       <c r="L23">
-        <v>325766.53125</v>
+        <v>289960.6841030027</v>
       </c>
       <c r="M23">
-        <v>289960.6841030027</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N23">
-        <v>247072.1579664879</v>
+        <v>280523.2540238095</v>
       </c>
       <c r="O23">
-        <v>280523.2540238095</v>
+        <v>289709.59375</v>
       </c>
       <c r="P23">
-        <v>289709.59375</v>
+        <v>621015.875</v>
       </c>
       <c r="Q23">
-        <v>621015.875</v>
+        <v>11744355</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -6535,31 +6535,31 @@
         <v>228857.609375</v>
       </c>
       <c r="I24">
-        <v>465592.0625</v>
+        <v>211325.53125</v>
       </c>
       <c r="J24">
-        <v>211325.53125</v>
+        <v>225204.859375</v>
       </c>
       <c r="K24">
-        <v>225204.859375</v>
+        <v>221671.328125</v>
       </c>
       <c r="L24">
-        <v>221671.328125</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M24">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N24">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O24">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P24">
-        <v>186858.078125</v>
+        <v>589648.5</v>
       </c>
       <c r="Q24">
-        <v>589648.5</v>
+        <v>11344672</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -6588,31 +6588,31 @@
         <v>252662.59375</v>
       </c>
       <c r="I25">
-        <v>636719.1875</v>
+        <v>224549.953125</v>
       </c>
       <c r="J25">
-        <v>224549.953125</v>
+        <v>225792.90625</v>
       </c>
       <c r="K25">
-        <v>225792.90625</v>
+        <v>234766.40625</v>
       </c>
       <c r="L25">
-        <v>234766.40625</v>
+        <v>211988.8750972823</v>
       </c>
       <c r="M25">
-        <v>211988.8750972823</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N25">
-        <v>217145.9842669504</v>
+        <v>206491.0428957709</v>
       </c>
       <c r="O25">
-        <v>206491.0428957709</v>
+        <v>208215.03125</v>
       </c>
       <c r="P25">
-        <v>208215.03125</v>
+        <v>395358.21875</v>
       </c>
       <c r="Q25">
-        <v>395358.21875</v>
+        <v>11239982</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -6641,31 +6641,31 @@
         <v>285781.28125</v>
       </c>
       <c r="I26">
-        <v>654351.5</v>
+        <v>271793.0625</v>
       </c>
       <c r="J26">
-        <v>271793.0625</v>
+        <v>286017.3125</v>
       </c>
       <c r="K26">
-        <v>286017.3125</v>
+        <v>289976.25</v>
       </c>
       <c r="L26">
-        <v>289976.25</v>
+        <v>181092.6954715423</v>
       </c>
       <c r="M26">
-        <v>181092.6954715423</v>
+        <v>193152.0614021899</v>
       </c>
       <c r="N26">
-        <v>193152.0614021899</v>
+        <v>179744.6474663025</v>
       </c>
       <c r="O26">
-        <v>179744.6474663025</v>
+        <v>177912.75</v>
       </c>
       <c r="P26">
-        <v>177912.75</v>
+        <v>257720.125</v>
       </c>
       <c r="Q26">
-        <v>257720.125</v>
+        <v>12708032</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -6694,31 +6694,31 @@
         <v>272954.8125</v>
       </c>
       <c r="I27">
-        <v>628991.25</v>
+        <v>260104.53125</v>
       </c>
       <c r="J27">
-        <v>260104.53125</v>
+        <v>276498.03125</v>
       </c>
       <c r="K27">
-        <v>276498.03125</v>
+        <v>272784.65625</v>
       </c>
       <c r="L27">
-        <v>272784.65625</v>
+        <v>216378.2590363934</v>
       </c>
       <c r="M27">
-        <v>216378.2590363934</v>
+        <v>217145.9842669504</v>
       </c>
       <c r="N27">
-        <v>217145.9842669504</v>
+        <v>207765.092</v>
       </c>
       <c r="O27">
-        <v>207765.092</v>
+        <v>270795.34375</v>
       </c>
       <c r="P27">
-        <v>270795.34375</v>
+        <v>1029089.125</v>
       </c>
       <c r="Q27">
-        <v>1029089.125</v>
+        <v>11538099</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -6747,31 +6747,31 @@
         <v>249474.75</v>
       </c>
       <c r="I28">
-        <v>493415.125</v>
+        <v>243029.25</v>
       </c>
       <c r="J28">
-        <v>243029.25</v>
+        <v>242618.671875</v>
       </c>
       <c r="K28">
-        <v>242618.671875</v>
+        <v>240460.609375</v>
       </c>
       <c r="L28">
-        <v>240460.609375</v>
+        <v>185041.232644487</v>
       </c>
       <c r="M28">
-        <v>185041.232644487</v>
+        <v>188263.410198064</v>
       </c>
       <c r="N28">
-        <v>188263.410198064</v>
+        <v>188135.6153014209</v>
       </c>
       <c r="O28">
-        <v>188135.6153014209</v>
+        <v>187813.0625</v>
       </c>
       <c r="P28">
-        <v>187813.0625</v>
+        <v>530313.875</v>
       </c>
       <c r="Q28">
-        <v>530313.875</v>
+        <v>10960851</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -6800,31 +6800,31 @@
         <v>307476.1875</v>
       </c>
       <c r="I29">
-        <v>314713.9375</v>
+        <v>292361.0625</v>
       </c>
       <c r="J29">
-        <v>292361.0625</v>
+        <v>314319.9375</v>
       </c>
       <c r="K29">
-        <v>314319.9375</v>
+        <v>318149.96875</v>
       </c>
       <c r="L29">
-        <v>318149.96875</v>
+        <v>225836.4577320142</v>
       </c>
       <c r="M29">
-        <v>225836.4577320142</v>
+        <v>193152.0614021899</v>
       </c>
       <c r="N29">
-        <v>193152.0614021899</v>
+        <v>235575.7194642857</v>
       </c>
       <c r="O29">
-        <v>235575.7194642857</v>
+        <v>234883.09375</v>
       </c>
       <c r="P29">
-        <v>234883.09375</v>
+        <v>212395.625</v>
       </c>
       <c r="Q29">
-        <v>212395.625</v>
+        <v>11187797</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -6853,31 +6853,31 @@
         <v>268282.9375</v>
       </c>
       <c r="I30">
-        <v>252956.96875</v>
+        <v>235129.109375</v>
       </c>
       <c r="J30">
-        <v>235129.109375</v>
+        <v>254450.0625</v>
       </c>
       <c r="K30">
-        <v>254450.0625</v>
+        <v>250593.921875</v>
       </c>
       <c r="L30">
-        <v>250593.921875</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M30">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N30">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O30">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P30">
-        <v>186858.078125</v>
+        <v>326663.9375</v>
       </c>
       <c r="Q30">
-        <v>326663.9375</v>
+        <v>11440531</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -6906,31 +6906,31 @@
         <v>288965.375</v>
       </c>
       <c r="I31">
-        <v>252459.78125</v>
+        <v>257030.59375</v>
       </c>
       <c r="J31">
-        <v>257030.59375</v>
+        <v>268390.0625</v>
       </c>
       <c r="K31">
-        <v>268390.0625</v>
+        <v>279273.59375</v>
       </c>
       <c r="L31">
-        <v>279273.59375</v>
+        <v>181092.6954715423</v>
       </c>
       <c r="M31">
-        <v>181092.6954715423</v>
+        <v>193152.0614021899</v>
       </c>
       <c r="N31">
-        <v>193152.0614021899</v>
+        <v>179744.6474663025</v>
       </c>
       <c r="O31">
-        <v>179744.6474663025</v>
+        <v>177912.75</v>
       </c>
       <c r="P31">
-        <v>177912.75</v>
+        <v>-32950.0546875</v>
       </c>
       <c r="Q31">
-        <v>-32950.0546875</v>
+        <v>11454867</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -6959,31 +6959,31 @@
         <v>331495.78125</v>
       </c>
       <c r="I32">
-        <v>302247.71875</v>
+        <v>299728.15625</v>
       </c>
       <c r="J32">
-        <v>299728.15625</v>
+        <v>325881</v>
       </c>
       <c r="K32">
-        <v>325881</v>
+        <v>303067.875</v>
       </c>
       <c r="L32">
-        <v>303067.875</v>
+        <v>237317.7615870661</v>
       </c>
       <c r="M32">
-        <v>237317.7615870661</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N32">
-        <v>247072.1579664879</v>
+        <v>230874.8753571428</v>
       </c>
       <c r="O32">
-        <v>230874.8753571428</v>
+        <v>280135.3125</v>
       </c>
       <c r="P32">
-        <v>280135.3125</v>
+        <v>191092.5</v>
       </c>
       <c r="Q32">
-        <v>191092.5</v>
+        <v>16026030</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -7012,31 +7012,31 @@
         <v>255578.34375</v>
       </c>
       <c r="I33">
-        <v>386427.875</v>
+        <v>238636.4375</v>
       </c>
       <c r="J33">
-        <v>238636.4375</v>
+        <v>251439.71875</v>
       </c>
       <c r="K33">
-        <v>251439.71875</v>
+        <v>238450.390625</v>
       </c>
       <c r="L33">
-        <v>238450.390625</v>
+        <v>188020.0205654948</v>
       </c>
       <c r="M33">
-        <v>188020.0205654948</v>
+        <v>186058.1692558845</v>
       </c>
       <c r="N33">
-        <v>186058.1692558845</v>
+        <v>187183.3815785604</v>
       </c>
       <c r="O33">
-        <v>187183.3815785604</v>
+        <v>186858.078125</v>
       </c>
       <c r="P33">
-        <v>186858.078125</v>
+        <v>96415.4140625</v>
       </c>
       <c r="Q33">
-        <v>96415.4140625</v>
+        <v>15278260</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -7065,31 +7065,31 @@
         <v>319375.96875</v>
       </c>
       <c r="I34">
-        <v>425887.75</v>
+        <v>285119.53125</v>
       </c>
       <c r="J34">
-        <v>285119.53125</v>
+        <v>309943.53125</v>
       </c>
       <c r="K34">
-        <v>309943.53125</v>
+        <v>319759.625</v>
       </c>
       <c r="L34">
-        <v>319759.625</v>
+        <v>236039.7116089126</v>
       </c>
       <c r="M34">
-        <v>236039.7116089126</v>
+        <v>247072.1579664879</v>
       </c>
       <c r="N34">
-        <v>247072.1579664879</v>
+        <v>234406.9771491842</v>
       </c>
       <c r="O34">
-        <v>234406.9771491842</v>
+        <v>231223.359375</v>
       </c>
       <c r="P34">
-        <v>231223.359375</v>
+        <v>816470.5</v>
       </c>
       <c r="Q34">
-        <v>816470.5</v>
+        <v>15023081</v>
       </c>
     </row>
   </sheetData>
